--- a/paper/Data_for_application.xlsx
+++ b/paper/Data_for_application.xlsx
@@ -809,7 +809,7 @@
   <dimension ref="A1:L211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,27 +878,27 @@
         <v>6.8</v>
       </c>
       <c r="G2">
-        <f>IF($D2&gt;AVERAGE($D$2:$D$211),$D2,0)</f>
-        <v>0.42599999999999999</v>
+        <f>IF($D2&gt;AVERAGE($D$2:$D$211),$D2-AVERAGE($D$2:$D$211),0)</f>
+        <v>0.42730476190476191</v>
       </c>
       <c r="H2">
-        <f>IF($D2&lt;AVERAGE($D$2:$D$211),$D2,0)</f>
+        <f>IF($D2&lt;AVERAGE($D$2:$D$211),$D2-AVERAGE($D$2:$D$211),0)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>IF($E2&gt;AVERAGE($E$2:$E$211),$E2,0)</f>
-        <v>1.6</v>
+        <f>IF($E2&gt;AVERAGE($E$2:$E$211),$E2-AVERAGE($E$2:$E$211),0)</f>
+        <v>0.13352380952381049</v>
       </c>
       <c r="J2">
-        <f>IF($E2&lt;AVERAGE($E$2:$E$211),$E2,0)</f>
+        <f>IF($E2&lt;AVERAGE($E$2:$E$211),$E2-AVERAGE($E$2:$E$211),0)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>IF($F2&gt;AVERAGE($F$2:$F$211),$F2,0)</f>
-        <v>6.8</v>
+        <f>IF($F2&gt;AVERAGE($F$2:$F$211),$F2-AVERAGE($F$2:$F$211),0)</f>
+        <v>1.8857142857142852</v>
       </c>
       <c r="L2">
-        <f>IF($F2&lt;AVERAGE($F$2:$F$211),$F2,0)</f>
+        <f>IF($F2&lt;AVERAGE($F$2:$F$211),$F2-AVERAGE($F$2:$F$211),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -922,27 +922,27 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">IF($D3&gt;AVERAGE($D$2:$D$211),$D3,0)</f>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" ref="G3:G66" si="0">IF($D3&gt;AVERAGE($D$2:$D$211),$D3-AVERAGE($D$2:$D$211),0)</f>
+        <v>9.3047619047619129E-3</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="1">IF($D3&lt;AVERAGE($D$2:$D$211),$D3,0)</f>
+        <f t="shared" ref="H3:H66" si="1">IF($D3&lt;AVERAGE($D$2:$D$211),$D3-AVERAGE($D$2:$D$211),0)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="2">IF($E3&gt;AVERAGE($E$2:$E$211),$E3,0)</f>
-        <v>1.55</v>
+        <f t="shared" ref="I3:I66" si="2">IF($E3&gt;AVERAGE($E$2:$E$211),$E3-AVERAGE($E$2:$E$211),0)</f>
+        <v>8.3523809523810444E-2</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="3">IF($E3&lt;AVERAGE($E$2:$E$211),$E3,0)</f>
+        <f t="shared" ref="J3:J66" si="3">IF($E3&lt;AVERAGE($E$2:$E$211),$E3-AVERAGE($E$2:$E$211),0)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="4">IF($F3&gt;AVERAGE($F$2:$F$211),$F3,0)</f>
-        <v>5</v>
+        <f t="shared" ref="K3:K66" si="4">IF($F3&gt;AVERAGE($F$2:$F$211),$F3-AVERAGE($F$2:$F$211),0)</f>
+        <v>8.571428571428541E-2</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="5">IF($F3&lt;AVERAGE($F$2:$F$211),$F3,0)</f>
+        <f t="shared" ref="L3:L66" si="5">IF($F3&lt;AVERAGE($F$2:$F$211),$F3-AVERAGE($F$2:$F$211),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.53400000000000003</v>
+        <v>0.53530476190476195</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -975,7 +975,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>1.54</v>
+        <v>7.3523809523810435E-2</v>
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="K4">
         <f t="shared" si="4"/>
-        <v>5.4</v>
+        <v>0.48571428571428577</v>
       </c>
       <c r="L4">
         <f t="shared" si="5"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>0.13130476190476192</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>1.54</v>
+        <v>7.3523809523810435E-2</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
-        <v>5.4</v>
+        <v>0.48571428571428577</v>
       </c>
       <c r="L5">
         <f t="shared" si="5"/>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.13400000000000001</v>
+        <v>0.13530476190476193</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>1.55</v>
+        <v>8.3523809523810444E-2</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>5.0999999999999996</v>
+        <v>0.18571428571428505</v>
       </c>
       <c r="L6">
         <f t="shared" si="5"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.14599999999999999</v>
+        <v>0.14730476190476191</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>1.55</v>
+        <v>8.3523809523810444E-2</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>4.9000000000000004</v>
+        <v>-1.4285714285714235E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.14399999999999999</v>
+        <v>0.14530476190476191</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -1155,11 +1155,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>1.46</v>
+        <v>-6.4761904761896361E-3</v>
       </c>
       <c r="K8">
         <f t="shared" si="4"/>
-        <v>6.1</v>
+        <v>1.1857142857142851</v>
       </c>
       <c r="L8">
         <f t="shared" si="5"/>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.54</v>
+        <v>0.54130476190476196</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>1.53</v>
+        <v>6.3523809523810426E-2</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="4"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L9">
         <f t="shared" si="5"/>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.11</v>
+        <v>0.11130476190476192</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>1.51</v>
+        <v>4.3523809523810408E-2</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="4"/>
-        <v>7.1</v>
+        <v>2.1857142857142851</v>
       </c>
       <c r="L10">
         <f t="shared" si="5"/>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.48199999999999998</v>
+        <v>0.4833047619047619</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>1.51</v>
+        <v>4.3523809523810408E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
-        <v>7.1</v>
+        <v>2.1857142857142851</v>
       </c>
       <c r="L11">
         <f t="shared" si="5"/>
@@ -1323,11 +1323,11 @@
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>-0.108</v>
+        <v>-0.10669523809523808</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>1.51</v>
+        <v>4.3523809523810408E-2</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="4"/>
-        <v>7.1</v>
+        <v>2.1857142857142851</v>
       </c>
       <c r="L12">
         <f t="shared" si="5"/>
@@ -1367,11 +1367,11 @@
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>-0.13600000000000001</v>
+        <v>-0.13469523809523809</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>1.49</v>
+        <v>2.3523809523810391E-2</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="4"/>
-        <v>8.1999999999999993</v>
+        <v>3.2857142857142847</v>
       </c>
       <c r="L13">
         <f t="shared" si="5"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>2.8000000000000001E-2</v>
+        <v>2.9304761904761913E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>1.47</v>
+        <v>3.5238095238103728E-3</v>
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
-        <v>6.3</v>
+        <v>1.3857142857142852</v>
       </c>
       <c r="L14">
         <f t="shared" si="5"/>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.10130476190476193</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>1.47</v>
+        <v>3.5238095238103728E-3</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
-        <v>6.3</v>
+        <v>1.3857142857142852</v>
       </c>
       <c r="L15">
         <f t="shared" si="5"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.16600000000000001</v>
+        <v>0.16730476190476193</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>1.47</v>
+        <v>3.5238095238103728E-3</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
-        <v>7.3</v>
+        <v>2.3857142857142852</v>
       </c>
       <c r="L16">
         <f t="shared" si="5"/>
@@ -1543,11 +1543,11 @@
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>-0.11</v>
+        <v>-0.10869523809523808</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>1.47</v>
+        <v>3.5238095238103728E-3</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
-        <v>6.5</v>
+        <v>1.5857142857142854</v>
       </c>
       <c r="L17">
         <f t="shared" si="5"/>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>-0.192</v>
+        <v>-0.19069523809523808</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
@@ -1595,11 +1595,11 @@
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>1.46</v>
+        <v>-6.4761904761896361E-3</v>
       </c>
       <c r="K18">
         <f t="shared" si="4"/>
-        <v>6.7</v>
+        <v>1.7857142857142856</v>
       </c>
       <c r="L18">
         <f t="shared" si="5"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>0.20799999999999999</v>
+        <v>0.20930476190476191</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
@@ -1639,11 +1639,11 @@
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>1.46</v>
+        <v>-6.4761904761896361E-3</v>
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>6.7</v>
+        <v>1.7857142857142856</v>
       </c>
       <c r="L19">
         <f t="shared" si="5"/>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>0.45130476190476193</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>1.51</v>
+        <v>4.3523809523810408E-2</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>2.0857142857142854</v>
       </c>
       <c r="L20">
         <f t="shared" si="5"/>
@@ -1719,11 +1719,11 @@
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>-0.27</v>
+        <v>-0.2686952380952381</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>1.48</v>
+        <v>1.3523809523810382E-2</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="K21">
         <f t="shared" si="4"/>
-        <v>8.8000000000000007</v>
+        <v>3.8857142857142861</v>
       </c>
       <c r="L21">
         <f t="shared" si="5"/>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>5.8000000000000003E-2</v>
+        <v>5.9304761904761916E-2</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>3.3523809523810399E-2</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="4"/>
-        <v>8.9</v>
+        <v>3.9857142857142858</v>
       </c>
       <c r="L22">
         <f t="shared" si="5"/>
@@ -1807,11 +1807,11 @@
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>-6.8695238095238087E-2</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>3.3523809523810399E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
-        <v>8.9</v>
+        <v>3.9857142857142858</v>
       </c>
       <c r="L23">
         <f t="shared" si="5"/>
@@ -1851,11 +1851,11 @@
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>-0.158</v>
+        <v>-0.15669523809523808</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>3.3523809523810399E-2</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>8.9</v>
+        <v>3.9857142857142858</v>
       </c>
       <c r="L24">
         <f t="shared" si="5"/>
@@ -1895,11 +1895,11 @@
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>-0.19400000000000001</v>
+        <v>-0.19269523809523809</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>1.56</v>
+        <v>9.3523809523810453E-2</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>9.4</v>
+        <v>4.4857142857142858</v>
       </c>
       <c r="L25">
         <f t="shared" si="5"/>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>-0.74399999999999999</v>
+        <v>-0.74269523809523808</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
@@ -1947,11 +1947,11 @@
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
-        <v>1.44</v>
+        <v>-2.6476190476189654E-2</v>
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
-        <v>7.3</v>
+        <v>2.3857142857142852</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>-1.0860000000000001</v>
+        <v>-1.0846952380952382</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
@@ -1991,11 +1991,11 @@
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
-        <v>1.44</v>
+        <v>-2.6476190476189654E-2</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>7.3</v>
+        <v>2.3857142857142852</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>-1.446</v>
+        <v>-1.444695238095238</v>
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
@@ -2035,11 +2035,11 @@
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
-        <v>1.4</v>
+        <v>-6.6476190476189689E-2</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>5.0999999999999996</v>
+        <v>0.18571428571428505</v>
       </c>
       <c r="L28">
         <f t="shared" si="5"/>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>-1.224</v>
+        <v>-1.2226952380952381</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
@@ -2079,11 +2079,11 @@
       </c>
       <c r="J29">
         <f t="shared" si="3"/>
-        <v>1.4</v>
+        <v>-6.6476190476189689E-2</v>
       </c>
       <c r="K29">
         <f t="shared" si="4"/>
-        <v>5.0999999999999996</v>
+        <v>0.18571428571428505</v>
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>-0.70799999999999996</v>
+        <v>-0.70669523809523804</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
@@ -2123,11 +2123,11 @@
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K30">
         <f t="shared" si="4"/>
-        <v>5.8</v>
+        <v>0.88571428571428523</v>
       </c>
       <c r="L30">
         <f t="shared" si="5"/>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>-0.72</v>
+        <v>-0.71869523809523805</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
@@ -2167,11 +2167,11 @@
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K31">
         <f t="shared" si="4"/>
-        <v>5.3</v>
+        <v>0.38571428571428523</v>
       </c>
       <c r="L31">
         <f t="shared" si="5"/>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>-0.85399999999999998</v>
+        <v>-0.85269523809523806</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
@@ -2211,11 +2211,11 @@
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K32">
         <f t="shared" si="4"/>
-        <v>5.3</v>
+        <v>0.38571428571428523</v>
       </c>
       <c r="L32">
         <f t="shared" si="5"/>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>-0.94</v>
+        <v>-0.93869523809523803</v>
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
@@ -2255,11 +2255,11 @@
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>5.3</v>
+        <v>0.38571428571428523</v>
       </c>
       <c r="L33">
         <f t="shared" si="5"/>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>-0.65200000000000002</v>
+        <v>-0.6506952380952381</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="3"/>
-        <v>1.38</v>
+        <v>-8.6476190476189707E-2</v>
       </c>
       <c r="K34">
         <f t="shared" si="4"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="L34">
         <f t="shared" si="5"/>
-        <v>4.9000000000000004</v>
+        <v>-1.4285714285714235E-2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>-0.82799999999999996</v>
+        <v>-0.82669523809523804</v>
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
-        <v>1.39</v>
+        <v>-7.6476190476189698E-2</v>
       </c>
       <c r="K35">
         <f t="shared" si="4"/>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="L35">
         <f t="shared" si="5"/>
-        <v>4.5</v>
+        <v>-0.41428571428571459</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>-0.11</v>
+        <v>-0.10869523809523808</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
@@ -2387,11 +2387,11 @@
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
-        <v>1.37</v>
+        <v>-9.6476190476189494E-2</v>
       </c>
       <c r="K36">
         <f t="shared" si="4"/>
-        <v>5.2</v>
+        <v>0.28571428571428559</v>
       </c>
       <c r="L36">
         <f t="shared" si="5"/>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>3.4000000000000002E-2</v>
+        <v>3.5304761904761915E-2</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>1.47</v>
+        <v>3.5238095238103728E-3</v>
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K37">
         <f t="shared" si="4"/>
-        <v>7.6</v>
+        <v>2.6857142857142851</v>
       </c>
       <c r="L37">
         <f t="shared" si="5"/>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>8.4000000000000005E-2</v>
+        <v>8.5304761904761925E-2</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
@@ -2475,11 +2475,11 @@
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
-        <v>1.3</v>
+        <v>-0.16647619047618956</v>
       </c>
       <c r="K38">
         <f t="shared" si="4"/>
-        <v>6.8</v>
+        <v>1.8857142857142852</v>
       </c>
       <c r="L38">
         <f t="shared" si="5"/>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>-0.248</v>
+        <v>-0.24669523809523808</v>
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
@@ -2519,11 +2519,11 @@
       </c>
       <c r="J39">
         <f t="shared" si="3"/>
-        <v>1.21</v>
+        <v>-0.25647619047618964</v>
       </c>
       <c r="K39">
         <f t="shared" si="4"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L39">
         <f t="shared" si="5"/>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>-0.11799999999999999</v>
+        <v>-0.11669523809523807</v>
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
@@ -2563,11 +2563,11 @@
       </c>
       <c r="J40">
         <f t="shared" si="3"/>
-        <v>1.21</v>
+        <v>-0.25647619047618964</v>
       </c>
       <c r="K40">
         <f t="shared" si="4"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L40">
         <f t="shared" si="5"/>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>-0.46400000000000002</v>
+        <v>-0.4626952380952381</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
-        <v>1.19</v>
+        <v>-0.27647619047618965</v>
       </c>
       <c r="K41">
         <f t="shared" si="4"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L41">
         <f t="shared" si="5"/>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
-        <v>-0.59399999999999997</v>
+        <v>-0.59269523809523805</v>
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
@@ -2651,11 +2651,11 @@
       </c>
       <c r="J42">
         <f t="shared" si="3"/>
-        <v>1.19</v>
+        <v>-0.27647619047618965</v>
       </c>
       <c r="K42">
         <f t="shared" si="4"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L42">
         <f t="shared" si="5"/>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>-0.28599999999999998</v>
+        <v>-0.28469523809523806</v>
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
@@ -2695,11 +2695,11 @@
       </c>
       <c r="J43">
         <f t="shared" si="3"/>
-        <v>1.19</v>
+        <v>-0.27647619047618965</v>
       </c>
       <c r="K43">
         <f t="shared" si="4"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L43">
         <f t="shared" si="5"/>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>-0.48</v>
+        <v>-0.47869523809523806</v>
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="3"/>
-        <v>1.0900000000000001</v>
+        <v>-0.37647619047618952</v>
       </c>
       <c r="K44">
         <f t="shared" si="4"/>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="L44">
         <f t="shared" si="5"/>
-        <v>2.6</v>
+        <v>-2.3142857142857145</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>-0.47199999999999998</v>
+        <v>-0.47069523809523806</v>
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="3"/>
-        <v>1.0900000000000001</v>
+        <v>-0.37647619047618952</v>
       </c>
       <c r="K45">
         <f t="shared" si="4"/>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="L45">
         <f t="shared" si="5"/>
-        <v>2.6</v>
+        <v>-2.3142857142857145</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>-0.48399999999999999</v>
+        <v>-0.48269523809523807</v>
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="J46">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001</v>
+        <v>-0.36647619047618951</v>
       </c>
       <c r="K46">
         <f t="shared" si="4"/>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="L46">
         <f t="shared" si="5"/>
-        <v>1.3</v>
+        <v>-3.6142857142857148</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>-0.27400000000000002</v>
+        <v>-0.2726952380952381</v>
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001</v>
+        <v>-0.36647619047618951</v>
       </c>
       <c r="K47">
         <f t="shared" si="4"/>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="L47">
         <f t="shared" si="5"/>
-        <v>1.3</v>
+        <v>-3.6142857142857148</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
-        <v>-0.20599999999999999</v>
+        <v>-0.20469523809523807</v>
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
-        <v>1.02</v>
+        <v>-0.44647619047618958</v>
       </c>
       <c r="K48">
         <f t="shared" si="4"/>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="L48">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>-4.0142857142857142</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>0.122</v>
+        <v>0.12330476190476192</v>
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="J49">
         <f t="shared" si="3"/>
-        <v>1.04</v>
+        <v>-0.42647619047618957</v>
       </c>
       <c r="K49">
         <f t="shared" si="4"/>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="L49">
         <f t="shared" si="5"/>
-        <v>4.3</v>
+        <v>-0.61428571428571477</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
-        <v>-0.91800000000000004</v>
+        <v>-0.91669523809523812</v>
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="J50">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-0.4664761904761896</v>
       </c>
       <c r="K50">
         <f t="shared" si="4"/>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="L50">
         <f t="shared" si="5"/>
-        <v>3.3</v>
+        <v>-1.6142857142857148</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
-        <v>-0.24399999999999999</v>
+        <v>-0.24269523809523808</v>
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="J51">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-0.4664761904761896</v>
       </c>
       <c r="K51">
         <f t="shared" si="4"/>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="L51">
         <f t="shared" si="5"/>
-        <v>3.3</v>
+        <v>-1.6142857142857148</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>9.6000000000000002E-2</v>
+        <v>9.7304761904761922E-2</v>
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="J52">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-0.4664761904761896</v>
       </c>
       <c r="K52">
         <f t="shared" si="4"/>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="L52">
         <f t="shared" si="5"/>
-        <v>3.3</v>
+        <v>-1.6142857142857148</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>0.17</v>
+        <v>0.17130476190476193</v>
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="J53">
         <f t="shared" si="3"/>
-        <v>0.95</v>
+        <v>-0.51647619047618964</v>
       </c>
       <c r="K53">
         <f t="shared" si="4"/>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="L53">
         <f t="shared" si="5"/>
-        <v>2.1</v>
+        <v>-2.8142857142857145</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>0.45200000000000001</v>
+        <v>0.45330476190476193</v>
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
@@ -3179,11 +3179,11 @@
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
-        <v>1.04</v>
+        <v>-0.42647619047618957</v>
       </c>
       <c r="K54">
         <f t="shared" si="4"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L54">
         <f t="shared" si="5"/>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>0.31</v>
+        <v>0.31130476190476192</v>
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
@@ -3223,11 +3223,11 @@
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
-        <v>1.04</v>
+        <v>-0.42647619047618957</v>
       </c>
       <c r="K55">
         <f t="shared" si="4"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L55">
         <f t="shared" si="5"/>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>0.374</v>
+        <v>0.37530476190476192</v>
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="J56">
         <f t="shared" si="3"/>
-        <v>1.01</v>
+        <v>-0.45647619047618959</v>
       </c>
       <c r="K56">
         <f t="shared" si="4"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="L56">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-1.9142857142857146</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>0.19800000000000001</v>
+        <v>0.19930476190476193</v>
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
@@ -3311,11 +3311,11 @@
       </c>
       <c r="J57">
         <f t="shared" si="3"/>
-        <v>1.05</v>
+        <v>-0.41647619047618956</v>
       </c>
       <c r="K57">
         <f t="shared" si="4"/>
-        <v>8.1</v>
+        <v>3.1857142857142851</v>
       </c>
       <c r="L57">
         <f t="shared" si="5"/>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>0.38400000000000001</v>
+        <v>0.38530476190476193</v>
       </c>
       <c r="H58">
         <f t="shared" si="1"/>
@@ -3355,11 +3355,11 @@
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
-        <v>1.05</v>
+        <v>-0.41647619047618956</v>
       </c>
       <c r="K58">
         <f t="shared" si="4"/>
-        <v>8.1</v>
+        <v>3.1857142857142851</v>
       </c>
       <c r="L58">
         <f t="shared" si="5"/>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
-        <v>5.1999999999999998E-2</v>
+        <v>5.330476190476191E-2</v>
       </c>
       <c r="H59">
         <f t="shared" si="1"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
-        <v>1.05</v>
+        <v>-0.41647619047618956</v>
       </c>
       <c r="K59">
         <f t="shared" si="4"/>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="L59">
         <f t="shared" si="5"/>
-        <v>4.9000000000000004</v>
+        <v>-1.4285714285714235E-2</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>7.1304761904761926E-2</v>
       </c>
       <c r="H60">
         <f t="shared" si="1"/>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="J60">
         <f t="shared" si="3"/>
-        <v>1.05</v>
+        <v>-0.41647619047618956</v>
       </c>
       <c r="K60">
         <f t="shared" si="4"/>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="L60">
         <f t="shared" si="5"/>
-        <v>4.9000000000000004</v>
+        <v>-1.4285714285714235E-2</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
-        <v>0.10199999999999999</v>
+        <v>0.10330476190476191</v>
       </c>
       <c r="H61">
         <f t="shared" si="1"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="J61">
         <f t="shared" si="3"/>
-        <v>1.06</v>
+        <v>-0.40647619047618955</v>
       </c>
       <c r="K61">
         <f t="shared" si="4"/>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="L61">
         <f t="shared" si="5"/>
-        <v>4.5</v>
+        <v>-0.41428571428571459</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
-        <v>0.104</v>
+        <v>0.10530476190476191</v>
       </c>
       <c r="H62">
         <f t="shared" si="1"/>
@@ -3531,11 +3531,11 @@
       </c>
       <c r="J62">
         <f t="shared" si="3"/>
-        <v>1.08</v>
+        <v>-0.38647619047618953</v>
       </c>
       <c r="K62">
         <f t="shared" si="4"/>
-        <v>5.8</v>
+        <v>0.88571428571428523</v>
       </c>
       <c r="L62">
         <f t="shared" si="5"/>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
-        <v>0.114</v>
+        <v>0.11530476190476192</v>
       </c>
       <c r="H63">
         <f t="shared" si="1"/>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="J63">
         <f t="shared" si="3"/>
-        <v>1.02</v>
+        <v>-0.44647619047618958</v>
       </c>
       <c r="K63">
         <f t="shared" si="4"/>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="L63">
         <f t="shared" si="5"/>
-        <v>3.5</v>
+        <v>-1.4142857142857146</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="H64">
         <f t="shared" si="1"/>
-        <v>-0.19</v>
+        <v>-0.18869523809523808</v>
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="J64">
         <f t="shared" si="3"/>
-        <v>1.02</v>
+        <v>-0.44647619047618958</v>
       </c>
       <c r="K64">
         <f t="shared" si="4"/>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="L64">
         <f t="shared" si="5"/>
-        <v>3.5</v>
+        <v>-1.4142857142857146</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="H65">
         <f t="shared" si="1"/>
-        <v>-8.5999999999999993E-2</v>
+        <v>-8.4695238095238073E-2</v>
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="J65">
         <f t="shared" si="3"/>
-        <v>1.08</v>
+        <v>-0.38647619047618953</v>
       </c>
       <c r="K65">
         <f t="shared" si="4"/>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="L65">
         <f t="shared" si="5"/>
-        <v>2.7</v>
+        <v>-2.2142857142857144</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
-        <v>0.19</v>
+        <v>0.19130476190476192</v>
       </c>
       <c r="H66">
         <f t="shared" si="1"/>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="J66">
         <f t="shared" si="3"/>
-        <v>1.1399999999999999</v>
+        <v>-0.3264761904761897</v>
       </c>
       <c r="K66">
         <f t="shared" si="4"/>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="L66">
         <f t="shared" si="5"/>
-        <v>4.3</v>
+        <v>-0.61428571428571477</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3738,28 +3738,28 @@
         <v>4.7</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="6">IF($D67&gt;AVERAGE($D$2:$D$211),$D67,0)</f>
-        <v>0.67400000000000004</v>
+        <f t="shared" ref="G67:G130" si="6">IF($D67&gt;AVERAGE($D$2:$D$211),$D67-AVERAGE($D$2:$D$211),0)</f>
+        <v>0.67530476190476196</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="7">IF($D67&lt;AVERAGE($D$2:$D$211),$D67,0)</f>
+        <f t="shared" ref="H67:H130" si="7">IF($D67&lt;AVERAGE($D$2:$D$211),$D67-AVERAGE($D$2:$D$211),0)</f>
         <v>0</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="8">IF($E67&gt;AVERAGE($E$2:$E$211),$E67,0)</f>
+        <f t="shared" ref="I67:I130" si="8">IF($E67&gt;AVERAGE($E$2:$E$211),$E67-AVERAGE($E$2:$E$211),0)</f>
         <v>0</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="9">IF($E67&lt;AVERAGE($E$2:$E$211),$E67,0)</f>
-        <v>1.25</v>
+        <f t="shared" ref="J67:J130" si="9">IF($E67&lt;AVERAGE($E$2:$E$211),$E67-AVERAGE($E$2:$E$211),0)</f>
+        <v>-0.2164761904761896</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="10">IF($F67&gt;AVERAGE($F$2:$F$211),$F67,0)</f>
+        <f t="shared" ref="K67:K130" si="10">IF($F67&gt;AVERAGE($F$2:$F$211),$F67-AVERAGE($F$2:$F$211),0)</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L130" si="11">IF($F67&lt;AVERAGE($F$2:$F$211),$F67,0)</f>
-        <v>4.7</v>
+        <f t="shared" ref="L67:L130" si="11">IF($F67&lt;AVERAGE($F$2:$F$211),$F67-AVERAGE($F$2:$F$211),0)</f>
+        <v>-0.21428571428571441</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="G68">
         <f t="shared" si="6"/>
-        <v>0.41799999999999998</v>
+        <v>0.4193047619047619</v>
       </c>
       <c r="H68">
         <f t="shared" si="7"/>
@@ -3795,11 +3795,11 @@
       </c>
       <c r="J68">
         <f t="shared" si="9"/>
-        <v>1.27</v>
+        <v>-0.19647619047618958</v>
       </c>
       <c r="K68">
         <f t="shared" si="10"/>
-        <v>5.6</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="L68">
         <f t="shared" si="11"/>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="G69">
         <f t="shared" si="6"/>
-        <v>0.12</v>
+        <v>0.12130476190476192</v>
       </c>
       <c r="H69">
         <f t="shared" si="7"/>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="J69">
         <f t="shared" si="9"/>
-        <v>1.21</v>
+        <v>-0.25647619047618964</v>
       </c>
       <c r="K69">
         <f t="shared" si="10"/>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="L69">
         <f t="shared" si="11"/>
-        <v>4.9000000000000004</v>
+        <v>-1.4285714285714235E-2</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="G70">
         <f t="shared" si="6"/>
-        <v>0.14399999999999999</v>
+        <v>0.14530476190476191</v>
       </c>
       <c r="H70">
         <f t="shared" si="7"/>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="J70">
         <f t="shared" si="9"/>
-        <v>1.17</v>
+        <v>-0.29647619047618967</v>
       </c>
       <c r="K70">
         <f t="shared" si="10"/>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="L70">
         <f t="shared" si="11"/>
-        <v>4.8</v>
+        <v>-0.11428571428571477</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="G71">
         <f t="shared" si="6"/>
-        <v>0.122</v>
+        <v>0.12330476190476192</v>
       </c>
       <c r="H71">
         <f t="shared" si="7"/>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="J71">
         <f t="shared" si="9"/>
-        <v>1.23</v>
+        <v>-0.23647619047618962</v>
       </c>
       <c r="K71">
         <f t="shared" si="10"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="L71">
         <f t="shared" si="11"/>
-        <v>3.4</v>
+        <v>-1.5142857142857147</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="G72">
         <f t="shared" si="6"/>
-        <v>0.106</v>
+        <v>0.10730476190476192</v>
       </c>
       <c r="H72">
         <f t="shared" si="7"/>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="J72">
         <f t="shared" si="9"/>
-        <v>1.23</v>
+        <v>-0.23647619047618962</v>
       </c>
       <c r="K72">
         <f t="shared" si="10"/>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="L72">
         <f t="shared" si="11"/>
-        <v>3.4</v>
+        <v>-1.5142857142857147</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="H73">
         <f t="shared" si="7"/>
-        <v>-0.52800000000000002</v>
+        <v>-0.52669523809523811</v>
       </c>
       <c r="I73">
         <f t="shared" si="8"/>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="J73">
         <f t="shared" si="9"/>
-        <v>1.24</v>
+        <v>-0.22647619047618961</v>
       </c>
       <c r="K73">
         <f t="shared" si="10"/>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="L73">
         <f t="shared" si="11"/>
-        <v>3.4</v>
+        <v>-1.5142857142857147</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="G74">
         <f t="shared" si="6"/>
-        <v>0.64800000000000002</v>
+        <v>0.64930476190476194</v>
       </c>
       <c r="H74">
         <f t="shared" si="7"/>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="J74">
         <f t="shared" si="9"/>
-        <v>1.23</v>
+        <v>-0.23647619047618962</v>
       </c>
       <c r="K74">
         <f t="shared" si="10"/>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="L74">
         <f t="shared" si="11"/>
-        <v>4.5</v>
+        <v>-0.41428571428571459</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="G75">
         <f t="shared" si="6"/>
-        <v>0.73199999999999998</v>
+        <v>0.7333047619047619</v>
       </c>
       <c r="H75">
         <f t="shared" si="7"/>
@@ -4103,11 +4103,11 @@
       </c>
       <c r="J75">
         <f t="shared" si="9"/>
-        <v>1.24</v>
+        <v>-0.22647619047618961</v>
       </c>
       <c r="K75">
         <f t="shared" si="10"/>
-        <v>6.2</v>
+        <v>1.2857142857142856</v>
       </c>
       <c r="L75">
         <f t="shared" si="11"/>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="G76">
         <f t="shared" si="6"/>
-        <v>0.33</v>
+        <v>0.33130476190476194</v>
       </c>
       <c r="H76">
         <f t="shared" si="7"/>
@@ -4147,11 +4147,11 @@
       </c>
       <c r="J76">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>-0.16647619047618956</v>
       </c>
       <c r="K76">
         <f t="shared" si="10"/>
-        <v>6.2</v>
+        <v>1.2857142857142856</v>
       </c>
       <c r="L76">
         <f t="shared" si="11"/>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="G77">
         <f t="shared" si="6"/>
-        <v>0.28999999999999998</v>
+        <v>0.2913047619047619</v>
       </c>
       <c r="H77">
         <f t="shared" si="7"/>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="J77">
         <f t="shared" si="9"/>
-        <v>1.22</v>
+        <v>-0.24647619047618963</v>
       </c>
       <c r="K77">
         <f t="shared" si="10"/>
-        <v>6.7</v>
+        <v>1.7857142857142856</v>
       </c>
       <c r="L77">
         <f t="shared" si="11"/>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="G78">
         <f t="shared" si="6"/>
-        <v>0.27</v>
+        <v>0.27130476190476194</v>
       </c>
       <c r="H78">
         <f t="shared" si="7"/>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="J78">
         <f t="shared" si="9"/>
-        <v>1.26</v>
+        <v>-0.20647619047618959</v>
       </c>
       <c r="K78">
         <f t="shared" si="10"/>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="L78">
         <f t="shared" si="11"/>
-        <v>4.2</v>
+        <v>-0.71428571428571441</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="G79">
         <f t="shared" si="6"/>
-        <v>0.14599999999999999</v>
+        <v>0.14730476190476191</v>
       </c>
       <c r="H79">
         <f t="shared" si="7"/>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="J79">
         <f t="shared" si="9"/>
-        <v>1.28</v>
+        <v>-0.18647619047618957</v>
       </c>
       <c r="K79">
         <f t="shared" si="10"/>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="L79">
         <f t="shared" si="11"/>
-        <v>4.4000000000000004</v>
+        <v>-0.51428571428571423</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="G80">
         <f t="shared" si="6"/>
-        <v>0.42799999999999999</v>
+        <v>0.42930476190476191</v>
       </c>
       <c r="H80">
         <f t="shared" si="7"/>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="J80">
         <f t="shared" si="9"/>
-        <v>1.28</v>
+        <v>-0.18647619047618957</v>
       </c>
       <c r="K80">
         <f t="shared" si="10"/>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="L80">
         <f t="shared" si="11"/>
-        <v>4.8</v>
+        <v>-0.11428571428571477</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="G81">
         <f t="shared" si="6"/>
-        <v>0.22800000000000001</v>
+        <v>0.22930476190476193</v>
       </c>
       <c r="H81">
         <f t="shared" si="7"/>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="J81">
         <f t="shared" si="9"/>
-        <v>1.28</v>
+        <v>-0.18647619047618957</v>
       </c>
       <c r="K81">
         <f t="shared" si="10"/>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="L81">
         <f t="shared" si="11"/>
-        <v>3.5</v>
+        <v>-1.4142857142857146</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="G82">
         <f t="shared" si="6"/>
-        <v>0.54600000000000004</v>
+        <v>0.54730476190476196</v>
       </c>
       <c r="H82">
         <f t="shared" si="7"/>
@@ -4411,11 +4411,11 @@
       </c>
       <c r="J82">
         <f t="shared" si="9"/>
-        <v>1.36</v>
+        <v>-0.1064761904761895</v>
       </c>
       <c r="K82">
         <f t="shared" si="10"/>
-        <v>6.6</v>
+        <v>1.6857142857142851</v>
       </c>
       <c r="L82">
         <f t="shared" si="11"/>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="G83">
         <f t="shared" si="6"/>
-        <v>0.60399999999999998</v>
+        <v>0.6053047619047619</v>
       </c>
       <c r="H83">
         <f t="shared" si="7"/>
@@ -4455,11 +4455,11 @@
       </c>
       <c r="J83">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>-6.6476190476189689E-2</v>
       </c>
       <c r="K83">
         <f t="shared" si="10"/>
-        <v>7.4</v>
+        <v>2.4857142857142858</v>
       </c>
       <c r="L83">
         <f t="shared" si="11"/>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="G84">
         <f t="shared" si="6"/>
-        <v>0.32400000000000001</v>
+        <v>0.32530476190476193</v>
       </c>
       <c r="H84">
         <f t="shared" si="7"/>
@@ -4499,11 +4499,11 @@
       </c>
       <c r="J84">
         <f t="shared" si="9"/>
-        <v>1.44</v>
+        <v>-2.6476190476189654E-2</v>
       </c>
       <c r="K84">
         <f t="shared" si="10"/>
-        <v>7.2</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="L84">
         <f t="shared" si="11"/>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="G85">
         <f t="shared" si="6"/>
-        <v>0.73599999999999999</v>
+        <v>0.73730476190476191</v>
       </c>
       <c r="H85">
         <f t="shared" si="7"/>
@@ -4543,11 +4543,11 @@
       </c>
       <c r="J85">
         <f t="shared" si="9"/>
-        <v>1.44</v>
+        <v>-2.6476190476189654E-2</v>
       </c>
       <c r="K85">
         <f t="shared" si="10"/>
-        <v>7.2</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="L85">
         <f t="shared" si="11"/>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="G86">
         <f t="shared" si="6"/>
-        <v>1.1040000000000001</v>
+        <v>1.105304761904762</v>
       </c>
       <c r="H86">
         <f t="shared" si="7"/>
@@ -4587,11 +4587,11 @@
       </c>
       <c r="J86">
         <f t="shared" si="9"/>
-        <v>1.37</v>
+        <v>-9.6476190476189494E-2</v>
       </c>
       <c r="K86">
         <f t="shared" si="10"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L86">
         <f t="shared" si="11"/>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="G87">
         <f t="shared" si="6"/>
-        <v>1.282</v>
+        <v>1.2833047619047619</v>
       </c>
       <c r="H87">
         <f t="shared" si="7"/>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="I87">
         <f t="shared" si="8"/>
-        <v>1.52</v>
+        <v>5.3523809523810417E-2</v>
       </c>
       <c r="J87">
         <f t="shared" si="9"/>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="K87">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>8.571428571428541E-2</v>
       </c>
       <c r="L87">
         <f t="shared" si="11"/>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="G88">
         <f t="shared" si="6"/>
-        <v>1.6779999999999999</v>
+        <v>1.6793047619047619</v>
       </c>
       <c r="H88">
         <f t="shared" si="7"/>
@@ -4675,11 +4675,11 @@
       </c>
       <c r="J88">
         <f t="shared" si="9"/>
-        <v>1.41</v>
+        <v>-5.647619047618968E-2</v>
       </c>
       <c r="K88">
         <f t="shared" si="10"/>
-        <v>6.2</v>
+        <v>1.2857142857142856</v>
       </c>
       <c r="L88">
         <f t="shared" si="11"/>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="G89">
         <f t="shared" si="6"/>
-        <v>0.98599999999999999</v>
+        <v>0.98730476190476191</v>
       </c>
       <c r="H89">
         <f t="shared" si="7"/>
@@ -4719,11 +4719,11 @@
       </c>
       <c r="J89">
         <f t="shared" si="9"/>
-        <v>1.38</v>
+        <v>-8.6476190476189707E-2</v>
       </c>
       <c r="K89">
         <f t="shared" si="10"/>
-        <v>5.2</v>
+        <v>0.28571428571428559</v>
       </c>
       <c r="L89">
         <f t="shared" si="11"/>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="G90">
         <f t="shared" si="6"/>
-        <v>1.34</v>
+        <v>1.341304761904762</v>
       </c>
       <c r="H90">
         <f t="shared" si="7"/>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="J90">
         <f t="shared" si="9"/>
-        <v>1.33</v>
+        <v>-0.13647619047618953</v>
       </c>
       <c r="K90">
         <f t="shared" si="10"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="L90">
         <f t="shared" si="11"/>
-        <v>4.4000000000000004</v>
+        <v>-0.51428571428571423</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="G91">
         <f t="shared" si="6"/>
-        <v>1.1120000000000001</v>
+        <v>1.113304761904762</v>
       </c>
       <c r="H91">
         <f t="shared" si="7"/>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="J91">
         <f t="shared" si="9"/>
-        <v>1.41</v>
+        <v>-5.647619047618968E-2</v>
       </c>
       <c r="K91">
         <f t="shared" si="10"/>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="L91">
         <f t="shared" si="11"/>
-        <v>4.8</v>
+        <v>-0.11428571428571477</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="G92">
         <f t="shared" si="6"/>
-        <v>1.444</v>
+        <v>1.4453047619047619</v>
       </c>
       <c r="H92">
         <f t="shared" si="7"/>
@@ -4851,11 +4851,11 @@
       </c>
       <c r="J92">
         <f t="shared" si="9"/>
-        <v>1.41</v>
+        <v>-5.647619047618968E-2</v>
       </c>
       <c r="K92">
         <f t="shared" si="10"/>
-        <v>6.1</v>
+        <v>1.1857142857142851</v>
       </c>
       <c r="L92">
         <f t="shared" si="11"/>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="G93">
         <f t="shared" si="6"/>
-        <v>1.758</v>
+        <v>1.7593047619047619</v>
       </c>
       <c r="H93">
         <f t="shared" si="7"/>
@@ -4895,11 +4895,11 @@
       </c>
       <c r="J93">
         <f t="shared" si="9"/>
-        <v>1.42</v>
+        <v>-4.6476190476189672E-2</v>
       </c>
       <c r="K93">
         <f t="shared" si="10"/>
-        <v>6.9</v>
+        <v>1.9857142857142858</v>
       </c>
       <c r="L93">
         <f t="shared" si="11"/>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="G94">
         <f t="shared" si="6"/>
-        <v>1.208</v>
+        <v>1.2093047619047619</v>
       </c>
       <c r="H94">
         <f t="shared" si="7"/>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="I94">
         <f t="shared" si="8"/>
-        <v>1.49</v>
+        <v>2.3523809523810391E-2</v>
       </c>
       <c r="J94">
         <f t="shared" si="9"/>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="K94">
         <f t="shared" si="10"/>
-        <v>6.4</v>
+        <v>1.4857142857142858</v>
       </c>
       <c r="L94">
         <f t="shared" si="11"/>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="G95">
         <f t="shared" si="6"/>
-        <v>0.32600000000000001</v>
+        <v>0.32730476190476193</v>
       </c>
       <c r="H95">
         <f t="shared" si="7"/>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="J95">
         <f t="shared" si="9"/>
-        <v>1.34</v>
+        <v>-0.12647619047618952</v>
       </c>
       <c r="K95">
         <f t="shared" si="10"/>
-        <v>5.8</v>
+        <v>0.88571428571428523</v>
       </c>
       <c r="L95">
         <f t="shared" si="11"/>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="G96">
         <f t="shared" si="6"/>
-        <v>1.2E-2</v>
+        <v>1.3304761904761913E-2</v>
       </c>
       <c r="H96">
         <f t="shared" si="7"/>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="J96">
         <f t="shared" si="9"/>
-        <v>1.27</v>
+        <v>-0.19647619047618958</v>
       </c>
       <c r="K96">
         <f t="shared" si="10"/>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="L96">
         <f t="shared" si="11"/>
-        <v>3.5</v>
+        <v>-1.4142857142857146</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="H97">
         <f t="shared" si="7"/>
-        <v>-0.61</v>
+        <v>-0.60869523809523807</v>
       </c>
       <c r="I97">
         <f t="shared" si="8"/>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="J97">
         <f t="shared" si="9"/>
-        <v>1.33</v>
+        <v>-0.13647619047618953</v>
       </c>
       <c r="K97">
         <f t="shared" si="10"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="L97">
         <f t="shared" si="11"/>
-        <v>3.9</v>
+        <v>-1.0142857142857147</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="G98">
         <f t="shared" si="6"/>
-        <v>0.08</v>
+        <v>8.1304761904761921E-2</v>
       </c>
       <c r="H98">
         <f t="shared" si="7"/>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="J98">
         <f t="shared" si="9"/>
-        <v>1.37</v>
+        <v>-9.6476190476189494E-2</v>
       </c>
       <c r="K98">
         <f t="shared" si="10"/>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="L98">
         <f t="shared" si="11"/>
-        <v>4.5999999999999996</v>
+        <v>-0.31428571428571495</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="H99">
         <f t="shared" si="7"/>
-        <v>-0.122</v>
+        <v>-0.12069523809523808</v>
       </c>
       <c r="I99">
         <f t="shared" si="8"/>
@@ -5159,11 +5159,11 @@
       </c>
       <c r="J99">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>-6.6476190476189689E-2</v>
       </c>
       <c r="K99">
         <f t="shared" si="10"/>
-        <v>5.0999999999999996</v>
+        <v>0.18571428571428505</v>
       </c>
       <c r="L99">
         <f t="shared" si="11"/>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="H100">
         <f t="shared" si="7"/>
-        <v>-0.32400000000000001</v>
+        <v>-0.32269523809523809</v>
       </c>
       <c r="I100">
         <f t="shared" si="8"/>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="J100">
         <f t="shared" si="9"/>
-        <v>1.45</v>
+        <v>-1.6476190476189645E-2</v>
       </c>
       <c r="K100">
         <f t="shared" si="10"/>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="L100">
         <f t="shared" si="11"/>
-        <v>4.8</v>
+        <v>-0.11428571428571477</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="H101">
         <f t="shared" si="7"/>
-        <v>-0.39400000000000002</v>
+        <v>-0.3926952380952381</v>
       </c>
       <c r="I101">
         <f t="shared" si="8"/>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="J101">
         <f t="shared" si="9"/>
-        <v>1.38</v>
+        <v>-8.6476190476189707E-2</v>
       </c>
       <c r="K101">
         <f t="shared" si="10"/>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="L101">
         <f t="shared" si="11"/>
-        <v>3.9</v>
+        <v>-1.0142857142857147</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="H102">
         <f t="shared" si="7"/>
-        <v>-0.46600000000000003</v>
+        <v>-0.46469523809523811</v>
       </c>
       <c r="I102">
         <f t="shared" si="8"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="J102">
         <f t="shared" si="9"/>
-        <v>1.39</v>
+        <v>-7.6476190476189698E-2</v>
       </c>
       <c r="K102">
         <f t="shared" si="10"/>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="L102">
         <f t="shared" si="11"/>
-        <v>4.3</v>
+        <v>-0.61428571428571477</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -5323,7 +5323,7 @@
       </c>
       <c r="G103">
         <f t="shared" si="6"/>
-        <v>0.19800000000000001</v>
+        <v>0.19930476190476193</v>
       </c>
       <c r="H103">
         <f t="shared" si="7"/>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="I103">
         <f t="shared" si="8"/>
-        <v>1.47</v>
+        <v>3.5238095238103728E-3</v>
       </c>
       <c r="J103">
         <f t="shared" si="9"/>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="L103">
         <f t="shared" si="11"/>
-        <v>4.5</v>
+        <v>-0.41428571428571459</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="G104">
         <f t="shared" si="6"/>
-        <v>0.316</v>
+        <v>0.31730476190476192</v>
       </c>
       <c r="H104">
         <f t="shared" si="7"/>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="I104">
         <f t="shared" si="8"/>
-        <v>1.48</v>
+        <v>1.3523809523810382E-2</v>
       </c>
       <c r="J104">
         <f t="shared" si="9"/>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="K104">
         <f t="shared" si="10"/>
-        <v>5.6</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="L104">
         <f t="shared" si="11"/>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="G105">
         <f t="shared" si="6"/>
-        <v>0.06</v>
+        <v>6.1304761904761911E-2</v>
       </c>
       <c r="H105">
         <f t="shared" si="7"/>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="J105">
         <f t="shared" si="9"/>
-        <v>1.39</v>
+        <v>-7.6476190476189698E-2</v>
       </c>
       <c r="K105">
         <f t="shared" si="10"/>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="L105">
         <f t="shared" si="11"/>
-        <v>4.5</v>
+        <v>-0.41428571428571459</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="G106">
         <f t="shared" si="6"/>
-        <v>0.44800000000000001</v>
+        <v>0.44930476190476193</v>
       </c>
       <c r="H106">
         <f t="shared" si="7"/>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="J106">
         <f t="shared" si="9"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K106">
         <f t="shared" si="10"/>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="L106">
         <f t="shared" si="11"/>
-        <v>4.5</v>
+        <v>-0.41428571428571459</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="G107">
         <f t="shared" si="6"/>
-        <v>0.66600000000000004</v>
+        <v>0.66730476190476196</v>
       </c>
       <c r="H107">
         <f t="shared" si="7"/>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="J107">
         <f t="shared" si="9"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K107">
         <f t="shared" si="10"/>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="L107">
         <f t="shared" si="11"/>
-        <v>4.2</v>
+        <v>-0.71428571428571441</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="G108">
         <f t="shared" si="6"/>
-        <v>0.128</v>
+        <v>0.12930476190476192</v>
       </c>
       <c r="H108">
         <f t="shared" si="7"/>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="J108">
         <f t="shared" si="9"/>
-        <v>1.45</v>
+        <v>-1.6476190476189645E-2</v>
       </c>
       <c r="K108">
         <f t="shared" si="10"/>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="L108">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>-0.91428571428571459</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -5587,7 +5587,7 @@
       </c>
       <c r="G109">
         <f t="shared" si="6"/>
-        <v>0.182</v>
+        <v>0.18330476190476191</v>
       </c>
       <c r="H109">
         <f t="shared" si="7"/>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="J109">
         <f t="shared" si="9"/>
-        <v>1.41</v>
+        <v>-5.647619047618968E-2</v>
       </c>
       <c r="K109">
         <f t="shared" si="10"/>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="L109">
         <f t="shared" si="11"/>
-        <v>4.5</v>
+        <v>-0.41428571428571459</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="G110">
         <f t="shared" si="6"/>
-        <v>0.32800000000000001</v>
+        <v>0.32930476190476193</v>
       </c>
       <c r="H110">
         <f t="shared" si="7"/>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="J110">
         <f t="shared" si="9"/>
-        <v>1.41</v>
+        <v>-5.647619047618968E-2</v>
       </c>
       <c r="K110">
         <f t="shared" si="10"/>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="L110">
         <f t="shared" si="11"/>
-        <v>4.5999999999999996</v>
+        <v>-0.31428571428571495</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="G111">
         <f t="shared" si="6"/>
-        <v>0.45800000000000002</v>
+        <v>0.45930476190476194</v>
       </c>
       <c r="H111">
         <f t="shared" si="7"/>
@@ -5687,11 +5687,11 @@
       </c>
       <c r="J111">
         <f t="shared" si="9"/>
-        <v>1.45</v>
+        <v>-1.6476190476189645E-2</v>
       </c>
       <c r="K111">
         <f t="shared" si="10"/>
-        <v>6.4</v>
+        <v>1.4857142857142858</v>
       </c>
       <c r="L111">
         <f t="shared" si="11"/>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="G112">
         <f t="shared" si="6"/>
-        <v>0.35399999999999998</v>
+        <v>0.3553047619047619</v>
       </c>
       <c r="H112">
         <f t="shared" si="7"/>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="J112">
         <f t="shared" si="9"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K112">
         <f t="shared" si="10"/>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="L112">
         <f t="shared" si="11"/>
-        <v>3.9</v>
+        <v>-1.0142857142857147</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="H113">
         <f t="shared" si="7"/>
-        <v>-0.27200000000000002</v>
+        <v>-0.2706952380952381</v>
       </c>
       <c r="I113">
         <f t="shared" si="8"/>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="J113">
         <f t="shared" si="9"/>
-        <v>1.44</v>
+        <v>-2.6476190476189654E-2</v>
       </c>
       <c r="K113">
         <f t="shared" si="10"/>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="L113">
         <f t="shared" si="11"/>
-        <v>4.8</v>
+        <v>-0.11428571428571477</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="G114">
         <f t="shared" si="6"/>
-        <v>8.0000000000000002E-3</v>
+        <v>9.3047619047619129E-3</v>
       </c>
       <c r="H114">
         <f t="shared" si="7"/>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="J114">
         <f t="shared" si="9"/>
-        <v>1.44</v>
+        <v>-2.6476190476189654E-2</v>
       </c>
       <c r="K114">
         <f t="shared" si="10"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="L114">
         <f t="shared" si="11"/>
-        <v>3.9</v>
+        <v>-1.0142857142857147</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="H115">
         <f t="shared" si="7"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>-6.8695238095238087E-2</v>
       </c>
       <c r="I115">
         <f t="shared" si="8"/>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="J115">
         <f t="shared" si="9"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K115">
         <f t="shared" si="10"/>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="L115">
         <f t="shared" si="11"/>
-        <v>4.5</v>
+        <v>-0.41428571428571459</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="H116">
         <f t="shared" si="7"/>
-        <v>-0.126</v>
+        <v>-0.12469523809523808</v>
       </c>
       <c r="I116">
         <f t="shared" si="8"/>
@@ -5907,11 +5907,11 @@
       </c>
       <c r="J116">
         <f t="shared" si="9"/>
-        <v>1.43</v>
+        <v>-3.6476190476189663E-2</v>
       </c>
       <c r="K116">
         <f t="shared" si="10"/>
-        <v>5.4</v>
+        <v>0.48571428571428577</v>
       </c>
       <c r="L116">
         <f t="shared" si="11"/>
@@ -5943,11 +5943,11 @@
       </c>
       <c r="H117">
         <f t="shared" si="7"/>
-        <v>-5.8000000000000003E-2</v>
+        <v>-5.669523809523809E-2</v>
       </c>
       <c r="I117">
         <f t="shared" si="8"/>
-        <v>1.47</v>
+        <v>3.5238095238103728E-3</v>
       </c>
       <c r="J117">
         <f t="shared" si="9"/>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K117">
         <f t="shared" si="10"/>
-        <v>6.1</v>
+        <v>1.1857142857142851</v>
       </c>
       <c r="L117">
         <f t="shared" si="11"/>
@@ -5987,11 +5987,11 @@
       </c>
       <c r="H118">
         <f t="shared" si="7"/>
-        <v>-0.31</v>
+        <v>-0.30869523809523808</v>
       </c>
       <c r="I118">
         <f t="shared" si="8"/>
-        <v>1.48</v>
+        <v>1.3523809523810382E-2</v>
       </c>
       <c r="J118">
         <f t="shared" si="9"/>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="L118">
         <f t="shared" si="11"/>
-        <v>4.4000000000000004</v>
+        <v>-0.51428571428571423</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -6031,11 +6031,11 @@
       </c>
       <c r="H119">
         <f t="shared" si="7"/>
-        <v>-0.15</v>
+        <v>-0.14869523809523807</v>
       </c>
       <c r="I119">
         <f t="shared" si="8"/>
-        <v>1.56</v>
+        <v>9.3523809523810453E-2</v>
       </c>
       <c r="J119">
         <f t="shared" si="9"/>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="L119">
         <f t="shared" si="11"/>
-        <v>4.5</v>
+        <v>-0.41428571428571459</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -6075,11 +6075,11 @@
       </c>
       <c r="H120">
         <f t="shared" si="7"/>
-        <v>-0.15</v>
+        <v>-0.14869523809523807</v>
       </c>
       <c r="I120">
         <f t="shared" si="8"/>
-        <v>1.6</v>
+        <v>0.13352380952381049</v>
       </c>
       <c r="J120">
         <f t="shared" si="9"/>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="L120">
         <f t="shared" si="11"/>
-        <v>4.2</v>
+        <v>-0.71428571428571441</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -6119,11 +6119,11 @@
       </c>
       <c r="H121">
         <f t="shared" si="7"/>
-        <v>-0.48</v>
+        <v>-0.47869523809523806</v>
       </c>
       <c r="I121">
         <f t="shared" si="8"/>
-        <v>1.55</v>
+        <v>8.3523809523810444E-2</v>
       </c>
       <c r="J121">
         <f t="shared" si="9"/>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="L121">
         <f t="shared" si="11"/>
-        <v>3.7</v>
+        <v>-1.2142857142857144</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -6163,11 +6163,11 @@
       </c>
       <c r="H122">
         <f t="shared" si="7"/>
-        <v>-0.37</v>
+        <v>-0.36869523809523808</v>
       </c>
       <c r="I122">
         <f t="shared" si="8"/>
-        <v>1.58</v>
+        <v>0.11352380952381047</v>
       </c>
       <c r="J122">
         <f t="shared" si="9"/>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="L122">
         <f t="shared" si="11"/>
-        <v>3.6</v>
+        <v>-1.3142857142857145</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -6207,11 +6207,11 @@
       </c>
       <c r="H123">
         <f t="shared" si="7"/>
-        <v>-0.89600000000000002</v>
+        <v>-0.8946952380952381</v>
       </c>
       <c r="I123">
         <f t="shared" si="8"/>
-        <v>1.63</v>
+        <v>0.16352380952381029</v>
       </c>
       <c r="J123">
         <f t="shared" si="9"/>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="L123">
         <f t="shared" si="11"/>
-        <v>4.2</v>
+        <v>-0.71428571428571441</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -6251,11 +6251,11 @@
       </c>
       <c r="H124">
         <f t="shared" si="7"/>
-        <v>-0.90600000000000003</v>
+        <v>-0.90469523809523811</v>
       </c>
       <c r="I124">
         <f t="shared" si="8"/>
-        <v>1.57</v>
+        <v>0.10352380952381046</v>
       </c>
       <c r="J124">
         <f t="shared" si="9"/>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="L124">
         <f t="shared" si="11"/>
-        <v>3.6</v>
+        <v>-1.3142857142857145</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="H125">
         <f t="shared" si="7"/>
-        <v>-0.54200000000000004</v>
+        <v>-0.54069523809523812</v>
       </c>
       <c r="I125">
         <f t="shared" si="8"/>
-        <v>1.57</v>
+        <v>0.10352380952381046</v>
       </c>
       <c r="J125">
         <f t="shared" si="9"/>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="L125">
         <f t="shared" si="11"/>
-        <v>3.2</v>
+        <v>-1.7142857142857144</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -6339,11 +6339,11 @@
       </c>
       <c r="H126">
         <f t="shared" si="7"/>
-        <v>-0.36199999999999999</v>
+        <v>-0.36069523809523807</v>
       </c>
       <c r="I126">
         <f t="shared" si="8"/>
-        <v>1.69</v>
+        <v>0.22352380952381035</v>
       </c>
       <c r="J126">
         <f t="shared" si="9"/>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="L126">
         <f t="shared" si="11"/>
-        <v>4.2</v>
+        <v>-0.71428571428571441</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -6383,11 +6383,11 @@
       </c>
       <c r="H127">
         <f t="shared" si="7"/>
-        <v>-0.182</v>
+        <v>-0.18069523809523808</v>
       </c>
       <c r="I127">
         <f t="shared" si="8"/>
-        <v>1.68</v>
+        <v>0.21352380952381034</v>
       </c>
       <c r="J127">
         <f t="shared" si="9"/>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="L127">
         <f t="shared" si="11"/>
-        <v>4.4000000000000004</v>
+        <v>-0.51428571428571423</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -6427,11 +6427,11 @@
       </c>
       <c r="H128">
         <f t="shared" si="7"/>
-        <v>-0.11600000000000001</v>
+        <v>-0.11469523809523809</v>
       </c>
       <c r="I128">
         <f t="shared" si="8"/>
-        <v>1.75</v>
+        <v>0.2835238095238104</v>
       </c>
       <c r="J128">
         <f t="shared" si="9"/>
@@ -6439,7 +6439,7 @@
       </c>
       <c r="K128">
         <f t="shared" si="10"/>
-        <v>5.0999999999999996</v>
+        <v>0.18571428571428505</v>
       </c>
       <c r="L128">
         <f t="shared" si="11"/>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="G129">
         <f t="shared" si="6"/>
-        <v>1.7999999999999999E-2</v>
+        <v>1.9304761904761911E-2</v>
       </c>
       <c r="H129">
         <f t="shared" si="7"/>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="I129">
         <f t="shared" si="8"/>
-        <v>1.66</v>
+        <v>0.19352380952381032</v>
       </c>
       <c r="J129">
         <f t="shared" si="9"/>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="L129">
         <f t="shared" si="11"/>
-        <v>4.8</v>
+        <v>-0.11428571428571477</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="G130">
         <f t="shared" si="6"/>
-        <v>0.28399999999999997</v>
+        <v>0.28530476190476189</v>
       </c>
       <c r="H130">
         <f t="shared" si="7"/>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="I130">
         <f t="shared" si="8"/>
-        <v>1.64</v>
+        <v>0.1735238095238103</v>
       </c>
       <c r="J130">
         <f t="shared" si="9"/>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="L130">
         <f t="shared" si="11"/>
-        <v>4.7</v>
+        <v>-0.21428571428571441</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -6554,27 +6554,27 @@
         <v>5</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G194" si="12">IF($D131&gt;AVERAGE($D$2:$D$211),$D131,0)</f>
-        <v>0.23200000000000001</v>
+        <f t="shared" ref="G131:G194" si="12">IF($D131&gt;AVERAGE($D$2:$D$211),$D131-AVERAGE($D$2:$D$211),0)</f>
+        <v>0.23330476190476193</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H194" si="13">IF($D131&lt;AVERAGE($D$2:$D$211),$D131,0)</f>
+        <f t="shared" ref="H131:H194" si="13">IF($D131&lt;AVERAGE($D$2:$D$211),$D131-AVERAGE($D$2:$D$211),0)</f>
         <v>0</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="14">IF($E131&gt;AVERAGE($E$2:$E$211),$E131,0)</f>
-        <v>1.64</v>
+        <f t="shared" ref="I131:I194" si="14">IF($E131&gt;AVERAGE($E$2:$E$211),$E131-AVERAGE($E$2:$E$211),0)</f>
+        <v>0.1735238095238103</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="15">IF($E131&lt;AVERAGE($E$2:$E$211),$E131,0)</f>
+        <f t="shared" ref="J131:J194" si="15">IF($E131&lt;AVERAGE($E$2:$E$211),$E131-AVERAGE($E$2:$E$211),0)</f>
         <v>0</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="16">IF($F131&gt;AVERAGE($F$2:$F$211),$F131,0)</f>
-        <v>5</v>
+        <f t="shared" ref="K131:K194" si="16">IF($F131&gt;AVERAGE($F$2:$F$211),$F131-AVERAGE($F$2:$F$211),0)</f>
+        <v>8.571428571428541E-2</v>
       </c>
       <c r="L131">
-        <f t="shared" ref="L131:L194" si="17">IF($F131&lt;AVERAGE($F$2:$F$211),$F131,0)</f>
+        <f t="shared" ref="L131:L194" si="17">IF($F131&lt;AVERAGE($F$2:$F$211),$F131-AVERAGE($F$2:$F$211),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6603,11 +6603,11 @@
       </c>
       <c r="H132">
         <f t="shared" si="13"/>
-        <v>-6.4000000000000001E-2</v>
+        <v>-6.2695238095238082E-2</v>
       </c>
       <c r="I132">
         <f t="shared" si="14"/>
-        <v>1.61</v>
+        <v>0.1435238095238105</v>
       </c>
       <c r="J132">
         <f t="shared" si="15"/>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="K132">
         <f t="shared" si="16"/>
-        <v>6.1</v>
+        <v>1.1857142857142851</v>
       </c>
       <c r="L132">
         <f t="shared" si="17"/>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="G133">
         <f t="shared" si="12"/>
-        <v>0.13800000000000001</v>
+        <v>0.13930476190476193</v>
       </c>
       <c r="H133">
         <f t="shared" si="13"/>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="I133">
         <f t="shared" si="14"/>
-        <v>1.64</v>
+        <v>0.1735238095238103</v>
       </c>
       <c r="J133">
         <f t="shared" si="15"/>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="K133">
         <f t="shared" si="16"/>
-        <v>5.9</v>
+        <v>0.98571428571428577</v>
       </c>
       <c r="L133">
         <f t="shared" si="17"/>
@@ -6687,7 +6687,7 @@
       </c>
       <c r="G134">
         <f t="shared" si="12"/>
-        <v>0.42599999999999999</v>
+        <v>0.42730476190476191</v>
       </c>
       <c r="H134">
         <f t="shared" si="13"/>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="I134">
         <f t="shared" si="14"/>
-        <v>1.62</v>
+        <v>0.15352380952381051</v>
       </c>
       <c r="J134">
         <f t="shared" si="15"/>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="K134">
         <f t="shared" si="16"/>
-        <v>6.4</v>
+        <v>1.4857142857142858</v>
       </c>
       <c r="L134">
         <f t="shared" si="17"/>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="G135">
         <f t="shared" si="12"/>
-        <v>0.56399999999999995</v>
+        <v>0.56530476190476187</v>
       </c>
       <c r="H135">
         <f t="shared" si="13"/>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="I135">
         <f t="shared" si="14"/>
-        <v>1.64</v>
+        <v>0.1735238095238103</v>
       </c>
       <c r="J135">
         <f t="shared" si="15"/>
@@ -6747,7 +6747,7 @@
       </c>
       <c r="K135">
         <f t="shared" si="16"/>
-        <v>6.1</v>
+        <v>1.1857142857142851</v>
       </c>
       <c r="L135">
         <f t="shared" si="17"/>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="G136">
         <f t="shared" si="12"/>
-        <v>0.39800000000000002</v>
+        <v>0.39930476190476194</v>
       </c>
       <c r="H136">
         <f t="shared" si="13"/>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="I136">
         <f t="shared" si="14"/>
-        <v>1.74</v>
+        <v>0.27352380952381039</v>
       </c>
       <c r="J136">
         <f t="shared" si="15"/>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="K136">
         <f t="shared" si="16"/>
-        <v>7.3</v>
+        <v>2.3857142857142852</v>
       </c>
       <c r="L136">
         <f t="shared" si="17"/>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="G137">
         <f t="shared" si="12"/>
-        <v>0.32200000000000001</v>
+        <v>0.32330476190476193</v>
       </c>
       <c r="H137">
         <f t="shared" si="13"/>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="I137">
         <f t="shared" si="14"/>
-        <v>1.65</v>
+        <v>0.18352380952381031</v>
       </c>
       <c r="J137">
         <f t="shared" si="15"/>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="K137">
         <f t="shared" si="16"/>
-        <v>7.9</v>
+        <v>2.9857142857142858</v>
       </c>
       <c r="L137">
         <f t="shared" si="17"/>
@@ -6867,11 +6867,11 @@
       </c>
       <c r="H138">
         <f t="shared" si="13"/>
-        <v>-0.372</v>
+        <v>-0.37069523809523808</v>
       </c>
       <c r="I138">
         <f t="shared" si="14"/>
-        <v>1.61</v>
+        <v>0.1435238095238105</v>
       </c>
       <c r="J138">
         <f t="shared" si="15"/>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="K138">
         <f t="shared" si="16"/>
-        <v>6.8</v>
+        <v>1.8857142857142852</v>
       </c>
       <c r="L138">
         <f t="shared" si="17"/>
@@ -6911,11 +6911,11 @@
       </c>
       <c r="H139">
         <f t="shared" si="13"/>
-        <v>-0.29399999999999998</v>
+        <v>-0.29269523809523806</v>
       </c>
       <c r="I139">
         <f t="shared" si="14"/>
-        <v>1.53</v>
+        <v>6.3523809523810426E-2</v>
       </c>
       <c r="J139">
         <f t="shared" si="15"/>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="L139">
         <f t="shared" si="17"/>
-        <v>4.8</v>
+        <v>-0.11428571428571477</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -6955,11 +6955,11 @@
       </c>
       <c r="H140">
         <f t="shared" si="13"/>
-        <v>-0.5</v>
+        <v>-0.49869523809523808</v>
       </c>
       <c r="I140">
         <f t="shared" si="14"/>
-        <v>1.57</v>
+        <v>0.10352380952381046</v>
       </c>
       <c r="J140">
         <f t="shared" si="15"/>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="K140">
         <f t="shared" si="16"/>
-        <v>5.7</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L140">
         <f t="shared" si="17"/>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="H141">
         <f t="shared" si="13"/>
-        <v>-0.39400000000000002</v>
+        <v>-0.3926952380952381</v>
       </c>
       <c r="I141">
         <f t="shared" si="14"/>
-        <v>1.56</v>
+        <v>9.3523809523810453E-2</v>
       </c>
       <c r="J141">
         <f t="shared" si="15"/>
@@ -7011,7 +7011,7 @@
       </c>
       <c r="K141">
         <f t="shared" si="16"/>
-        <v>5.9</v>
+        <v>0.98571428571428577</v>
       </c>
       <c r="L141">
         <f t="shared" si="17"/>
@@ -7043,11 +7043,11 @@
       </c>
       <c r="H142">
         <f t="shared" si="13"/>
-        <v>-0.81</v>
+        <v>-0.80869523809523813</v>
       </c>
       <c r="I142">
         <f t="shared" si="14"/>
-        <v>1.52</v>
+        <v>5.3523809523810417E-2</v>
       </c>
       <c r="J142">
         <f t="shared" si="15"/>
@@ -7059,7 +7059,7 @@
       </c>
       <c r="L142">
         <f t="shared" si="17"/>
-        <v>4.7</v>
+        <v>-0.21428571428571441</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -7087,11 +7087,11 @@
       </c>
       <c r="H143">
         <f t="shared" si="13"/>
-        <v>-1.052</v>
+        <v>-1.0506952380952381</v>
       </c>
       <c r="I143">
         <f t="shared" si="14"/>
-        <v>1.55</v>
+        <v>8.3523809523810444E-2</v>
       </c>
       <c r="J143">
         <f t="shared" si="15"/>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="L143">
         <f t="shared" si="17"/>
-        <v>4.9000000000000004</v>
+        <v>-1.4285714285714235E-2</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -7131,11 +7131,11 @@
       </c>
       <c r="H144">
         <f t="shared" si="13"/>
-        <v>-1.208</v>
+        <v>-1.206695238095238</v>
       </c>
       <c r="I144">
         <f t="shared" si="14"/>
-        <v>1.59</v>
+        <v>0.12352380952381048</v>
       </c>
       <c r="J144">
         <f t="shared" si="15"/>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="L144">
         <f t="shared" si="17"/>
-        <v>2.4</v>
+        <v>-2.5142857142857147</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -7175,11 +7175,11 @@
       </c>
       <c r="H145">
         <f t="shared" si="13"/>
-        <v>-1.1859999999999999</v>
+        <v>-1.184695238095238</v>
       </c>
       <c r="I145">
         <f t="shared" si="14"/>
-        <v>1.65</v>
+        <v>0.18352380952381031</v>
       </c>
       <c r="J145">
         <f t="shared" si="15"/>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="L145">
         <f t="shared" si="17"/>
-        <v>4.2</v>
+        <v>-0.71428571428571441</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -7219,11 +7219,11 @@
       </c>
       <c r="H146">
         <f t="shared" si="13"/>
-        <v>-1.014</v>
+        <v>-1.0126952380952381</v>
       </c>
       <c r="I146">
         <f t="shared" si="14"/>
-        <v>1.64</v>
+        <v>0.1735238095238103</v>
       </c>
       <c r="J146">
         <f t="shared" si="15"/>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="L146">
         <f t="shared" si="17"/>
-        <v>2.7</v>
+        <v>-2.2142857142857144</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -7263,11 +7263,11 @@
       </c>
       <c r="H147">
         <f t="shared" si="13"/>
-        <v>-0.85199999999999998</v>
+        <v>-0.85069523809523806</v>
       </c>
       <c r="I147">
         <f t="shared" si="14"/>
-        <v>1.64</v>
+        <v>0.1735238095238103</v>
       </c>
       <c r="J147">
         <f t="shared" si="15"/>
@@ -7279,7 +7279,7 @@
       </c>
       <c r="L147">
         <f t="shared" si="17"/>
-        <v>2.7</v>
+        <v>-2.2142857142857144</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -7307,11 +7307,11 @@
       </c>
       <c r="H148">
         <f t="shared" si="13"/>
-        <v>-0.68</v>
+        <v>-0.67869523809523813</v>
       </c>
       <c r="I148">
         <f t="shared" si="14"/>
-        <v>1.62</v>
+        <v>0.15352380952381051</v>
       </c>
       <c r="J148">
         <f t="shared" si="15"/>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="L148">
         <f t="shared" si="17"/>
-        <v>3.8</v>
+        <v>-1.1142857142857148</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="H149">
         <f t="shared" si="13"/>
-        <v>-0.47199999999999998</v>
+        <v>-0.47069523809523806</v>
       </c>
       <c r="I149">
         <f t="shared" si="14"/>
-        <v>1.62</v>
+        <v>0.15352380952381051</v>
       </c>
       <c r="J149">
         <f t="shared" si="15"/>
@@ -7367,7 +7367,7 @@
       </c>
       <c r="L149">
         <f t="shared" si="17"/>
-        <v>3.5</v>
+        <v>-1.4142857142857146</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -7395,11 +7395,11 @@
       </c>
       <c r="H150">
         <f t="shared" si="13"/>
-        <v>-0.28999999999999998</v>
+        <v>-0.28869523809523806</v>
       </c>
       <c r="I150">
         <f t="shared" si="14"/>
-        <v>1.64</v>
+        <v>0.1735238095238103</v>
       </c>
       <c r="J150">
         <f t="shared" si="15"/>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="L150">
         <f t="shared" si="17"/>
-        <v>2.5</v>
+        <v>-2.4142857142857146</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -7439,11 +7439,11 @@
       </c>
       <c r="H151">
         <f t="shared" si="13"/>
-        <v>-0.30599999999999999</v>
+        <v>-0.30469523809523807</v>
       </c>
       <c r="I151">
         <f t="shared" si="14"/>
-        <v>1.64</v>
+        <v>0.1735238095238103</v>
       </c>
       <c r="J151">
         <f t="shared" si="15"/>
@@ -7455,7 +7455,7 @@
       </c>
       <c r="L151">
         <f t="shared" si="17"/>
-        <v>2.5</v>
+        <v>-2.4142857142857146</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -7483,11 +7483,11 @@
       </c>
       <c r="H152">
         <f t="shared" si="13"/>
-        <v>-0.50800000000000001</v>
+        <v>-0.50669523809523809</v>
       </c>
       <c r="I152">
         <f t="shared" si="14"/>
-        <v>1.56</v>
+        <v>9.3523809523810453E-2</v>
       </c>
       <c r="J152">
         <f t="shared" si="15"/>
@@ -7499,7 +7499,7 @@
       </c>
       <c r="L152">
         <f t="shared" si="17"/>
-        <v>-0.5</v>
+        <v>-5.4142857142857146</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -7527,11 +7527,11 @@
       </c>
       <c r="H153">
         <f t="shared" si="13"/>
-        <v>-0.46</v>
+        <v>-0.4586952380952381</v>
       </c>
       <c r="I153">
         <f t="shared" si="14"/>
-        <v>1.51</v>
+        <v>4.3523809523810408E-2</v>
       </c>
       <c r="J153">
         <f t="shared" si="15"/>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="L153">
         <f t="shared" si="17"/>
-        <v>-2</v>
+        <v>-6.9142857142857146</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -7567,7 +7567,7 @@
       </c>
       <c r="G154">
         <f t="shared" si="12"/>
-        <v>0.32200000000000001</v>
+        <v>0.32330476190476193</v>
       </c>
       <c r="H154">
         <f t="shared" si="13"/>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="I154">
         <f t="shared" si="14"/>
-        <v>1.54</v>
+        <v>7.3523809523810435E-2</v>
       </c>
       <c r="J154">
         <f t="shared" si="15"/>
@@ -7587,7 +7587,7 @@
       </c>
       <c r="L154">
         <f t="shared" si="17"/>
-        <v>-1.8</v>
+        <v>-6.7142857142857144</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="G155">
         <f t="shared" si="12"/>
-        <v>0.434</v>
+        <v>0.43530476190476192</v>
       </c>
       <c r="H155">
         <f t="shared" si="13"/>
@@ -7619,7 +7619,7 @@
       </c>
       <c r="I155">
         <f t="shared" si="14"/>
-        <v>1.57</v>
+        <v>0.10352380952381046</v>
       </c>
       <c r="J155">
         <f t="shared" si="15"/>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="L155">
         <f t="shared" si="17"/>
-        <v>3.3</v>
+        <v>-1.6142857142857148</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="G156">
         <f t="shared" si="12"/>
-        <v>0.84599999999999997</v>
+        <v>0.84730476190476189</v>
       </c>
       <c r="H156">
         <f t="shared" si="13"/>
@@ -7663,7 +7663,7 @@
       </c>
       <c r="I156">
         <f t="shared" si="14"/>
-        <v>1.65</v>
+        <v>0.18352380952381031</v>
       </c>
       <c r="J156">
         <f t="shared" si="15"/>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="K156">
         <f t="shared" si="16"/>
-        <v>5.4</v>
+        <v>0.48571428571428577</v>
       </c>
       <c r="L156">
         <f t="shared" si="17"/>
@@ -7699,7 +7699,7 @@
       </c>
       <c r="G157">
         <f t="shared" si="12"/>
-        <v>0.52800000000000002</v>
+        <v>0.52930476190476194</v>
       </c>
       <c r="H157">
         <f t="shared" si="13"/>
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I157">
         <f t="shared" si="14"/>
-        <v>1.65</v>
+        <v>0.18352380952381031</v>
       </c>
       <c r="J157">
         <f t="shared" si="15"/>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="L157">
         <f t="shared" si="17"/>
-        <v>4.0999999999999996</v>
+        <v>-0.81428571428571495</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="G158">
         <f t="shared" si="12"/>
-        <v>0.378</v>
+        <v>0.37930476190476192</v>
       </c>
       <c r="H158">
         <f t="shared" si="13"/>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="I158">
         <f t="shared" si="14"/>
-        <v>1.65</v>
+        <v>0.18352380952381031</v>
       </c>
       <c r="J158">
         <f t="shared" si="15"/>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="L158">
         <f t="shared" si="17"/>
-        <v>3.2</v>
+        <v>-1.7142857142857144</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -7791,11 +7791,11 @@
       </c>
       <c r="H159">
         <f t="shared" si="13"/>
-        <v>-3.2000000000000001E-2</v>
+        <v>-3.0695238095238088E-2</v>
       </c>
       <c r="I159">
         <f t="shared" si="14"/>
-        <v>1.65</v>
+        <v>0.18352380952381031</v>
       </c>
       <c r="J159">
         <f t="shared" si="15"/>
@@ -7807,7 +7807,7 @@
       </c>
       <c r="L159">
         <f t="shared" si="17"/>
-        <v>3.5</v>
+        <v>-1.4142857142857146</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="G160">
         <f t="shared" si="12"/>
-        <v>6.0000000000000001E-3</v>
+        <v>7.3047619047619129E-3</v>
       </c>
       <c r="H160">
         <f t="shared" si="13"/>
@@ -7839,7 +7839,7 @@
       </c>
       <c r="I160">
         <f t="shared" si="14"/>
-        <v>1.67</v>
+        <v>0.20352380952381033</v>
       </c>
       <c r="J160">
         <f t="shared" si="15"/>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="L160">
         <f t="shared" si="17"/>
-        <v>4.3</v>
+        <v>-0.61428571428571477</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="H161">
         <f t="shared" si="13"/>
-        <v>-0.252</v>
+        <v>-0.25069523809523808</v>
       </c>
       <c r="I161">
         <f t="shared" si="14"/>
-        <v>1.68</v>
+        <v>0.21352380952381034</v>
       </c>
       <c r="J161">
         <f t="shared" si="15"/>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="L161">
         <f t="shared" si="17"/>
-        <v>2.9</v>
+        <v>-2.0142857142857147</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="G162">
         <f t="shared" si="12"/>
-        <v>0.28199999999999997</v>
+        <v>0.28330476190476189</v>
       </c>
       <c r="H162">
         <f t="shared" si="13"/>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="I162">
         <f t="shared" si="14"/>
-        <v>1.66</v>
+        <v>0.19352380952381032</v>
       </c>
       <c r="J162">
         <f t="shared" si="15"/>
@@ -7939,7 +7939,7 @@
       </c>
       <c r="L162">
         <f t="shared" si="17"/>
-        <v>3.1</v>
+        <v>-1.8142857142857145</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="G163">
         <f t="shared" si="12"/>
-        <v>6.6000000000000003E-2</v>
+        <v>6.7304761904761923E-2</v>
       </c>
       <c r="H163">
         <f t="shared" si="13"/>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="I163">
         <f t="shared" si="14"/>
-        <v>1.77</v>
+        <v>0.30352380952381042</v>
       </c>
       <c r="J163">
         <f t="shared" si="15"/>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="L163">
         <f t="shared" si="17"/>
-        <v>3.8</v>
+        <v>-1.1142857142857148</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -8011,11 +8011,11 @@
       </c>
       <c r="H164">
         <f t="shared" si="13"/>
-        <v>-0.08</v>
+        <v>-7.8695238095238082E-2</v>
       </c>
       <c r="I164">
         <f t="shared" si="14"/>
-        <v>1.82</v>
+        <v>0.35352380952381046</v>
       </c>
       <c r="J164">
         <f t="shared" si="15"/>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="L164">
         <f t="shared" si="17"/>
-        <v>4.3</v>
+        <v>-0.61428571428571477</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -8055,11 +8055,11 @@
       </c>
       <c r="H165">
         <f t="shared" si="13"/>
-        <v>-2.8000000000000001E-2</v>
+        <v>-2.6695238095238088E-2</v>
       </c>
       <c r="I165">
         <f t="shared" si="14"/>
-        <v>1.76</v>
+        <v>0.29352380952381041</v>
       </c>
       <c r="J165">
         <f t="shared" si="15"/>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="L165">
         <f t="shared" si="17"/>
-        <v>3.1</v>
+        <v>-1.8142857142857145</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -8099,11 +8099,11 @@
       </c>
       <c r="H166">
         <f t="shared" si="13"/>
-        <v>-0.28000000000000003</v>
+        <v>-0.27869523809523811</v>
       </c>
       <c r="I166">
         <f t="shared" si="14"/>
-        <v>1.7</v>
+        <v>0.23352380952381036</v>
       </c>
       <c r="J166">
         <f t="shared" si="15"/>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="L166">
         <f t="shared" si="17"/>
-        <v>2.4</v>
+        <v>-2.5142857142857147</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="G167">
         <f t="shared" si="12"/>
-        <v>0.34200000000000003</v>
+        <v>0.34330476190476195</v>
       </c>
       <c r="H167">
         <f t="shared" si="13"/>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="I167">
         <f t="shared" si="14"/>
-        <v>1.74</v>
+        <v>0.27352380952381039</v>
       </c>
       <c r="J167">
         <f t="shared" si="15"/>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="L167">
         <f t="shared" si="17"/>
-        <v>4.5999999999999996</v>
+        <v>-0.31428571428571495</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="G168">
         <f t="shared" si="12"/>
-        <v>0.20399999999999999</v>
+        <v>0.20530476190476191</v>
       </c>
       <c r="H168">
         <f t="shared" si="13"/>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="I168">
         <f t="shared" si="14"/>
-        <v>1.8</v>
+        <v>0.33352380952381044</v>
       </c>
       <c r="J168">
         <f t="shared" si="15"/>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="K168">
         <f t="shared" si="16"/>
-        <v>5.9</v>
+        <v>0.98571428571428577</v>
       </c>
       <c r="L168">
         <f t="shared" si="17"/>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="G169">
         <f t="shared" si="12"/>
-        <v>0.28799999999999998</v>
+        <v>0.2893047619047619</v>
       </c>
       <c r="H169">
         <f t="shared" si="13"/>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="I169">
         <f t="shared" si="14"/>
-        <v>1.84</v>
+        <v>0.37352380952381048</v>
       </c>
       <c r="J169">
         <f t="shared" si="15"/>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="K169">
         <f t="shared" si="16"/>
-        <v>5.2</v>
+        <v>0.28571428571428559</v>
       </c>
       <c r="L169">
         <f t="shared" si="17"/>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="G170">
         <f t="shared" si="12"/>
-        <v>0.374</v>
+        <v>0.37530476190476192</v>
       </c>
       <c r="H170">
         <f t="shared" si="13"/>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="I170">
         <f t="shared" si="14"/>
-        <v>1.93</v>
+        <v>0.46352380952381034</v>
       </c>
       <c r="J170">
         <f t="shared" si="15"/>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="K170">
         <f t="shared" si="16"/>
-        <v>5.5</v>
+        <v>0.58571428571428541</v>
       </c>
       <c r="L170">
         <f t="shared" si="17"/>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="G171">
         <f t="shared" si="12"/>
-        <v>0.182</v>
+        <v>0.18330476190476191</v>
       </c>
       <c r="H171">
         <f t="shared" si="13"/>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="I171">
         <f t="shared" si="14"/>
-        <v>1.92</v>
+        <v>0.45352380952381033</v>
       </c>
       <c r="J171">
         <f t="shared" si="15"/>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="K171">
         <f t="shared" si="16"/>
-        <v>6.6</v>
+        <v>1.6857142857142851</v>
       </c>
       <c r="L171">
         <f t="shared" si="17"/>
@@ -8359,7 +8359,7 @@
       </c>
       <c r="G172">
         <f t="shared" si="12"/>
-        <v>0.158</v>
+        <v>0.15930476190476192</v>
       </c>
       <c r="H172">
         <f t="shared" si="13"/>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="I172">
         <f t="shared" si="14"/>
-        <v>1.9</v>
+        <v>0.43352380952381031</v>
       </c>
       <c r="J172">
         <f t="shared" si="15"/>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="K172">
         <f t="shared" si="16"/>
-        <v>6.6</v>
+        <v>1.6857142857142851</v>
       </c>
       <c r="L172">
         <f t="shared" si="17"/>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="G173">
         <f t="shared" si="12"/>
-        <v>0.53600000000000003</v>
+        <v>0.53730476190476195</v>
       </c>
       <c r="H173">
         <f t="shared" si="13"/>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="I173">
         <f t="shared" si="14"/>
-        <v>1.89</v>
+        <v>0.4235238095238103</v>
       </c>
       <c r="J173">
         <f t="shared" si="15"/>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="K173">
         <f t="shared" si="16"/>
-        <v>6.2</v>
+        <v>1.2857142857142856</v>
       </c>
       <c r="L173">
         <f t="shared" si="17"/>
@@ -8447,7 +8447,7 @@
       </c>
       <c r="G174">
         <f t="shared" si="12"/>
-        <v>1.1160000000000001</v>
+        <v>1.117304761904762</v>
       </c>
       <c r="H174">
         <f t="shared" si="13"/>
@@ -8455,7 +8455,7 @@
       </c>
       <c r="I174">
         <f t="shared" si="14"/>
-        <v>1.97</v>
+        <v>0.50352380952381037</v>
       </c>
       <c r="J174">
         <f t="shared" si="15"/>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="K174">
         <f t="shared" si="16"/>
-        <v>7.4</v>
+        <v>2.4857142857142858</v>
       </c>
       <c r="L174">
         <f t="shared" si="17"/>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="G175">
         <f t="shared" si="12"/>
-        <v>0.752</v>
+        <v>0.75330476190476192</v>
       </c>
       <c r="H175">
         <f t="shared" si="13"/>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="I175">
         <f t="shared" si="14"/>
-        <v>1.93</v>
+        <v>0.46352380952381034</v>
       </c>
       <c r="J175">
         <f t="shared" si="15"/>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="L175">
         <f t="shared" si="17"/>
-        <v>4.9000000000000004</v>
+        <v>-1.4285714285714235E-2</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="G176">
         <f t="shared" si="12"/>
-        <v>0.52800000000000002</v>
+        <v>0.52930476190476194</v>
       </c>
       <c r="H176">
         <f t="shared" si="13"/>
@@ -8543,7 +8543,7 @@
       </c>
       <c r="I176">
         <f t="shared" si="14"/>
-        <v>1.98</v>
+        <v>0.51352380952381038</v>
       </c>
       <c r="J176">
         <f t="shared" si="15"/>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="L176">
         <f t="shared" si="17"/>
-        <v>4.5</v>
+        <v>-0.41428571428571459</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="G177">
         <f t="shared" si="12"/>
-        <v>0.63600000000000001</v>
+        <v>0.63730476190476193</v>
       </c>
       <c r="H177">
         <f t="shared" si="13"/>
@@ -8587,7 +8587,7 @@
       </c>
       <c r="I177">
         <f t="shared" si="14"/>
-        <v>1.98</v>
+        <v>0.51352380952381038</v>
       </c>
       <c r="J177">
         <f t="shared" si="15"/>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="K177">
         <f t="shared" si="16"/>
-        <v>5.2</v>
+        <v>0.28571428571428559</v>
       </c>
       <c r="L177">
         <f t="shared" si="17"/>
@@ -8623,7 +8623,7 @@
       </c>
       <c r="G178">
         <f t="shared" si="12"/>
-        <v>0.54600000000000004</v>
+        <v>0.54730476190476196</v>
       </c>
       <c r="H178">
         <f t="shared" si="13"/>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="I178">
         <f t="shared" si="14"/>
-        <v>1.98</v>
+        <v>0.51352380952381038</v>
       </c>
       <c r="J178">
         <f t="shared" si="15"/>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="K178">
         <f t="shared" si="16"/>
-        <v>5.6</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="L178">
         <f t="shared" si="17"/>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="G179">
         <f t="shared" si="12"/>
-        <v>0.502</v>
+        <v>0.50330476190476192</v>
       </c>
       <c r="H179">
         <f t="shared" si="13"/>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="I179">
         <f t="shared" si="14"/>
-        <v>1.97</v>
+        <v>0.50352380952381037</v>
       </c>
       <c r="J179">
         <f t="shared" si="15"/>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="K179">
         <f t="shared" si="16"/>
-        <v>5.0999999999999996</v>
+        <v>0.18571428571428505</v>
       </c>
       <c r="L179">
         <f t="shared" si="17"/>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="G180">
         <f t="shared" si="12"/>
-        <v>0.65800000000000003</v>
+        <v>0.65930476190476195</v>
       </c>
       <c r="H180">
         <f t="shared" si="13"/>
@@ -8719,7 +8719,7 @@
       </c>
       <c r="I180">
         <f t="shared" si="14"/>
-        <v>2.15</v>
+        <v>0.68352380952381031</v>
       </c>
       <c r="J180">
         <f t="shared" si="15"/>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="K180">
         <f t="shared" si="16"/>
-        <v>7.2</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="L180">
         <f t="shared" si="17"/>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="G181">
         <f t="shared" si="12"/>
-        <v>0.48</v>
+        <v>0.4813047619047619</v>
       </c>
       <c r="H181">
         <f t="shared" si="13"/>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="I181">
         <f t="shared" si="14"/>
-        <v>2.02</v>
+        <v>0.55352380952381042</v>
       </c>
       <c r="J181">
         <f t="shared" si="15"/>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="K181">
         <f t="shared" si="16"/>
-        <v>6.3</v>
+        <v>1.3857142857142852</v>
       </c>
       <c r="L181">
         <f t="shared" si="17"/>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="G182">
         <f t="shared" si="12"/>
-        <v>0.28599999999999998</v>
+        <v>0.2873047619047619</v>
       </c>
       <c r="H182">
         <f t="shared" si="13"/>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="I182">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0.5335238095238104</v>
       </c>
       <c r="J182">
         <f t="shared" si="15"/>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="K182">
         <f t="shared" si="16"/>
-        <v>5.6</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="L182">
         <f t="shared" si="17"/>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="G183">
         <f t="shared" si="12"/>
-        <v>0.46200000000000002</v>
+        <v>0.46330476190476194</v>
       </c>
       <c r="H183">
         <f t="shared" si="13"/>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="I183">
         <f t="shared" si="14"/>
-        <v>2.0099999999999998</v>
+        <v>0.54352380952381019</v>
       </c>
       <c r="J183">
         <f t="shared" si="15"/>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="K183">
         <f t="shared" si="16"/>
-        <v>5.9</v>
+        <v>0.98571428571428577</v>
       </c>
       <c r="L183">
         <f t="shared" si="17"/>
@@ -8887,7 +8887,7 @@
       </c>
       <c r="G184">
         <f t="shared" si="12"/>
-        <v>0.252</v>
+        <v>0.25330476190476192</v>
       </c>
       <c r="H184">
         <f t="shared" si="13"/>
@@ -8895,7 +8895,7 @@
       </c>
       <c r="I184">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0.5335238095238104</v>
       </c>
       <c r="J184">
         <f t="shared" si="15"/>
@@ -8903,7 +8903,7 @@
       </c>
       <c r="K184">
         <f t="shared" si="16"/>
-        <v>5.8</v>
+        <v>0.88571428571428523</v>
       </c>
       <c r="L184">
         <f t="shared" si="17"/>
@@ -8931,7 +8931,7 @@
       </c>
       <c r="G185">
         <f t="shared" si="12"/>
-        <v>0.42399999999999999</v>
+        <v>0.42530476190476191</v>
       </c>
       <c r="H185">
         <f t="shared" si="13"/>
@@ -8939,7 +8939,7 @@
       </c>
       <c r="I185">
         <f t="shared" si="14"/>
-        <v>2.1</v>
+        <v>0.63352380952381049</v>
       </c>
       <c r="J185">
         <f t="shared" si="15"/>
@@ -8947,7 +8947,7 @@
       </c>
       <c r="K185">
         <f t="shared" si="16"/>
-        <v>6.6</v>
+        <v>1.6857142857142851</v>
       </c>
       <c r="L185">
         <f t="shared" si="17"/>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="G186">
         <f t="shared" si="12"/>
-        <v>0.25600000000000001</v>
+        <v>0.25730476190476192</v>
       </c>
       <c r="H186">
         <f t="shared" si="13"/>
@@ -8983,7 +8983,7 @@
       </c>
       <c r="I186">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0.5335238095238104</v>
       </c>
       <c r="J186">
         <f t="shared" si="15"/>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="K186">
         <f t="shared" si="16"/>
-        <v>5.6</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="L186">
         <f t="shared" si="17"/>
@@ -9019,7 +9019,7 @@
       </c>
       <c r="G187">
         <f t="shared" si="12"/>
-        <v>0.14199999999999999</v>
+        <v>0.14330476190476191</v>
       </c>
       <c r="H187">
         <f t="shared" si="13"/>
@@ -9027,7 +9027,7 @@
       </c>
       <c r="I187">
         <f t="shared" si="14"/>
-        <v>2.1</v>
+        <v>0.63352380952381049</v>
       </c>
       <c r="J187">
         <f t="shared" si="15"/>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="K187">
         <f t="shared" si="16"/>
-        <v>6.3</v>
+        <v>1.3857142857142852</v>
       </c>
       <c r="L187">
         <f t="shared" si="17"/>
@@ -9063,7 +9063,7 @@
       </c>
       <c r="G188">
         <f t="shared" si="12"/>
-        <v>0.13600000000000001</v>
+        <v>0.13730476190476193</v>
       </c>
       <c r="H188">
         <f t="shared" si="13"/>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="I188">
         <f t="shared" si="14"/>
-        <v>2.1</v>
+        <v>0.63352380952381049</v>
       </c>
       <c r="J188">
         <f t="shared" si="15"/>
@@ -9079,7 +9079,7 @@
       </c>
       <c r="K188">
         <f t="shared" si="16"/>
-        <v>8.1999999999999993</v>
+        <v>3.2857142857142847</v>
       </c>
       <c r="L188">
         <f t="shared" si="17"/>
@@ -9107,7 +9107,7 @@
       </c>
       <c r="G189">
         <f t="shared" si="12"/>
-        <v>0.17</v>
+        <v>0.17130476190476193</v>
       </c>
       <c r="H189">
         <f t="shared" si="13"/>
@@ -9115,7 +9115,7 @@
       </c>
       <c r="I189">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>0.5335238095238104</v>
       </c>
       <c r="J189">
         <f t="shared" si="15"/>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="K189">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>2.0857142857142854</v>
       </c>
       <c r="L189">
         <f t="shared" si="17"/>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="G190">
         <f t="shared" si="12"/>
-        <v>0.26400000000000001</v>
+        <v>0.26530476190476193</v>
       </c>
       <c r="H190">
         <f t="shared" si="13"/>
@@ -9159,7 +9159,7 @@
       </c>
       <c r="I190">
         <f t="shared" si="14"/>
-        <v>1.9</v>
+        <v>0.43352380952381031</v>
       </c>
       <c r="J190">
         <f t="shared" si="15"/>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="K190">
         <f t="shared" si="16"/>
-        <v>5.9</v>
+        <v>0.98571428571428577</v>
       </c>
       <c r="L190">
         <f t="shared" si="17"/>
@@ -9199,11 +9199,11 @@
       </c>
       <c r="H191">
         <f t="shared" si="13"/>
-        <v>-0.15</v>
+        <v>-0.14869523809523807</v>
       </c>
       <c r="I191">
         <f t="shared" si="14"/>
-        <v>1.8</v>
+        <v>0.33352380952381044</v>
       </c>
       <c r="J191">
         <f t="shared" si="15"/>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="K191">
         <f t="shared" si="16"/>
-        <v>5.3</v>
+        <v>0.38571428571428523</v>
       </c>
       <c r="L191">
         <f t="shared" si="17"/>
@@ -9243,11 +9243,11 @@
       </c>
       <c r="H192">
         <f t="shared" si="13"/>
-        <v>-0.22800000000000001</v>
+        <v>-0.22669523809523809</v>
       </c>
       <c r="I192">
         <f t="shared" si="14"/>
-        <v>1.7</v>
+        <v>0.23352380952381036</v>
       </c>
       <c r="J192">
         <f t="shared" si="15"/>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="L192">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>-0.91428571428571459</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -9287,11 +9287,11 @@
       </c>
       <c r="H193">
         <f t="shared" si="13"/>
-        <v>-0.17</v>
+        <v>-0.16869523809523809</v>
       </c>
       <c r="I193">
         <f t="shared" si="14"/>
-        <v>1.6</v>
+        <v>0.13352380952381049</v>
       </c>
       <c r="J193">
         <f t="shared" si="15"/>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="L193">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>-0.91428571428571459</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -9331,11 +9331,11 @@
       </c>
       <c r="H194">
         <f t="shared" si="13"/>
-        <v>-0.32600000000000001</v>
+        <v>-0.32469523809523809</v>
       </c>
       <c r="I194">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>3.3523809523810399E-2</v>
       </c>
       <c r="J194">
         <f t="shared" si="15"/>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="L194">
         <f t="shared" si="17"/>
-        <v>2.9</v>
+        <v>-2.0142857142857147</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -9370,27 +9370,27 @@
         <v>5.7</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G211" si="18">IF($D195&gt;AVERAGE($D$2:$D$211),$D195,0)</f>
+        <f t="shared" ref="G195:G211" si="18">IF($D195&gt;AVERAGE($D$2:$D$211),$D195-AVERAGE($D$2:$D$211),0)</f>
         <v>0</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H211" si="19">IF($D195&lt;AVERAGE($D$2:$D$211),$D195,0)</f>
-        <v>-0.156</v>
+        <f t="shared" ref="H195:H211" si="19">IF($D195&lt;AVERAGE($D$2:$D$211),$D195-AVERAGE($D$2:$D$211),0)</f>
+        <v>-0.15469523809523808</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I211" si="20">IF($E195&gt;AVERAGE($E$2:$E$211),$E195,0)</f>
-        <v>1.5</v>
+        <f t="shared" ref="I195:I211" si="20">IF($E195&gt;AVERAGE($E$2:$E$211),$E195-AVERAGE($E$2:$E$211),0)</f>
+        <v>3.3523809523810399E-2</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J211" si="21">IF($E195&lt;AVERAGE($E$2:$E$211),$E195,0)</f>
+        <f t="shared" ref="J195:J211" si="21">IF($E195&lt;AVERAGE($E$2:$E$211),$E195-AVERAGE($E$2:$E$211),0)</f>
         <v>0</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K211" si="22">IF($F195&gt;AVERAGE($F$2:$F$211),$F195,0)</f>
-        <v>5.7</v>
+        <f t="shared" ref="K195:K211" si="22">IF($F195&gt;AVERAGE($F$2:$F$211),$F195-AVERAGE($F$2:$F$211),0)</f>
+        <v>0.78571428571428559</v>
       </c>
       <c r="L195">
-        <f t="shared" ref="L195:L211" si="23">IF($F195&lt;AVERAGE($F$2:$F$211),$F195,0)</f>
+        <f t="shared" ref="L195:L211" si="23">IF($F195&lt;AVERAGE($F$2:$F$211),$F195-AVERAGE($F$2:$F$211),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="H196">
         <f t="shared" si="19"/>
-        <v>-0.32800000000000001</v>
+        <v>-0.32669523809523809</v>
       </c>
       <c r="I196">
         <f t="shared" si="20"/>
@@ -9427,11 +9427,11 @@
       </c>
       <c r="J196">
         <f t="shared" si="21"/>
-        <v>1.4</v>
+        <v>-6.6476190476189689E-2</v>
       </c>
       <c r="K196">
         <f t="shared" si="22"/>
-        <v>5.5</v>
+        <v>0.58571428571428541</v>
       </c>
       <c r="L196">
         <f t="shared" si="23"/>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="H197">
         <f t="shared" si="19"/>
-        <v>-0.314</v>
+        <v>-0.31269523809523808</v>
       </c>
       <c r="I197">
         <f t="shared" si="20"/>
@@ -9471,11 +9471,11 @@
       </c>
       <c r="J197">
         <f t="shared" si="21"/>
-        <v>1.4</v>
+        <v>-6.6476190476189689E-2</v>
       </c>
       <c r="K197">
         <f t="shared" si="22"/>
-        <v>5.5</v>
+        <v>0.58571428571428541</v>
       </c>
       <c r="L197">
         <f t="shared" si="23"/>
@@ -9507,11 +9507,11 @@
       </c>
       <c r="H198">
         <f t="shared" si="19"/>
-        <v>-0.308</v>
+        <v>-0.30669523809523808</v>
       </c>
       <c r="I198">
         <f t="shared" si="20"/>
-        <v>1.5</v>
+        <v>3.3523809523810399E-2</v>
       </c>
       <c r="J198">
         <f t="shared" si="21"/>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="K198">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>1.0857142857142854</v>
       </c>
       <c r="L198">
         <f t="shared" si="23"/>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="H199">
         <f t="shared" si="19"/>
-        <v>-0.46</v>
+        <v>-0.4586952380952381</v>
       </c>
       <c r="I199">
         <f t="shared" si="20"/>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="J199">
         <f t="shared" si="21"/>
-        <v>1.3</v>
+        <v>-0.16647619047618956</v>
       </c>
       <c r="K199">
         <f t="shared" si="22"/>
@@ -9567,7 +9567,7 @@
       </c>
       <c r="L199">
         <f t="shared" si="23"/>
-        <v>3.6</v>
+        <v>-1.3142857142857145</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="H200">
         <f t="shared" si="19"/>
-        <v>-0.49</v>
+        <v>-0.48869523809523807</v>
       </c>
       <c r="I200">
         <f t="shared" si="20"/>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="J200">
         <f t="shared" si="21"/>
-        <v>1.3</v>
+        <v>-0.16647619047618956</v>
       </c>
       <c r="K200">
         <f t="shared" si="22"/>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="L200">
         <f t="shared" si="23"/>
-        <v>3.6</v>
+        <v>-1.3142857142857145</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="H201">
         <f t="shared" si="19"/>
-        <v>-0.20200000000000001</v>
+        <v>-0.20069523809523809</v>
       </c>
       <c r="I201">
         <f t="shared" si="20"/>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="J201">
         <f t="shared" si="21"/>
-        <v>1.3</v>
+        <v>-0.16647619047618956</v>
       </c>
       <c r="K201">
         <f t="shared" si="22"/>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="L201">
         <f t="shared" si="23"/>
-        <v>3.6</v>
+        <v>-1.3142857142857145</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -9683,7 +9683,7 @@
       </c>
       <c r="H202">
         <f t="shared" si="19"/>
-        <v>-1.008</v>
+        <v>-1.0066952380952381</v>
       </c>
       <c r="I202">
         <f t="shared" si="20"/>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="J202">
         <f t="shared" si="21"/>
-        <v>1.3</v>
+        <v>-0.16647619047618956</v>
       </c>
       <c r="K202">
         <f t="shared" si="22"/>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="L202">
         <f t="shared" si="23"/>
-        <v>3.5</v>
+        <v>-1.4142857142857146</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -9727,7 +9727,7 @@
       </c>
       <c r="H203">
         <f t="shared" si="19"/>
-        <v>-0.84799999999999998</v>
+        <v>-0.84669523809523806</v>
       </c>
       <c r="I203">
         <f t="shared" si="20"/>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="J203">
         <f t="shared" si="21"/>
-        <v>1.2</v>
+        <v>-0.26647619047618964</v>
       </c>
       <c r="K203">
         <f t="shared" si="22"/>
@@ -9743,7 +9743,7 @@
       </c>
       <c r="L203">
         <f t="shared" si="23"/>
-        <v>2.2999999999999998</v>
+        <v>-2.6142857142857148</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="H204">
         <f t="shared" si="19"/>
-        <v>-1.246</v>
+        <v>-1.2446952380952381</v>
       </c>
       <c r="I204">
         <f t="shared" si="20"/>
@@ -9779,7 +9779,7 @@
       </c>
       <c r="J204">
         <f t="shared" si="21"/>
-        <v>1.2</v>
+        <v>-0.26647619047618964</v>
       </c>
       <c r="K204">
         <f t="shared" si="22"/>
@@ -9787,7 +9787,7 @@
       </c>
       <c r="L204">
         <f t="shared" si="23"/>
-        <v>1.9</v>
+        <v>-3.0142857142857147</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="H205">
         <f t="shared" si="19"/>
-        <v>-1.3939999999999999</v>
+        <v>-1.392695238095238</v>
       </c>
       <c r="I205">
         <f t="shared" si="20"/>
@@ -9823,7 +9823,7 @@
       </c>
       <c r="J205">
         <f t="shared" si="21"/>
-        <v>1.2</v>
+        <v>-0.26647619047618964</v>
       </c>
       <c r="K205">
         <f t="shared" si="22"/>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="L205">
         <f t="shared" si="23"/>
-        <v>1.9</v>
+        <v>-3.0142857142857147</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="H206">
         <f t="shared" si="19"/>
-        <v>-1.1819999999999999</v>
+        <v>-1.180695238095238</v>
       </c>
       <c r="I206">
         <f t="shared" si="20"/>
@@ -9867,7 +9867,7 @@
       </c>
       <c r="J206">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>-0.4664761904761896</v>
       </c>
       <c r="K206">
         <f t="shared" si="22"/>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="L206">
         <f t="shared" si="23"/>
-        <v>3.3</v>
+        <v>-1.6142857142857148</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="H207">
         <f t="shared" si="19"/>
-        <v>-1.42</v>
+        <v>-1.418695238095238</v>
       </c>
       <c r="I207">
         <f t="shared" si="20"/>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="J207">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>-0.4664761904761896</v>
       </c>
       <c r="K207">
         <f t="shared" si="22"/>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="L207">
         <f t="shared" si="23"/>
-        <v>2.7</v>
+        <v>-2.2142857142857144</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="H208">
         <f t="shared" si="19"/>
-        <v>-0.32400000000000001</v>
+        <v>-0.32269523809523809</v>
       </c>
       <c r="I208">
         <f t="shared" si="20"/>
@@ -9955,7 +9955,7 @@
       </c>
       <c r="J208">
         <f t="shared" si="21"/>
-        <v>0.9</v>
+        <v>-0.56647619047618958</v>
       </c>
       <c r="K208">
         <f t="shared" si="22"/>
@@ -9963,7 +9963,7 @@
       </c>
       <c r="L208">
         <f t="shared" si="23"/>
-        <v>-0.6</v>
+        <v>-5.5142857142857142</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="G209">
         <f t="shared" si="18"/>
-        <v>0.60399999999999998</v>
+        <v>0.6053047619047619</v>
       </c>
       <c r="H209">
         <f t="shared" si="19"/>
@@ -9999,7 +9999,7 @@
       </c>
       <c r="J209">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>-0.4664761904761896</v>
       </c>
       <c r="K209">
         <f t="shared" si="22"/>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="L209">
         <f t="shared" si="23"/>
-        <v>1.9</v>
+        <v>-3.0142857142857147</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="G210">
         <f t="shared" si="18"/>
-        <v>0.26</v>
+        <v>0.26130476190476193</v>
       </c>
       <c r="H210">
         <f t="shared" si="19"/>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="J210">
         <f t="shared" si="21"/>
-        <v>0.9</v>
+        <v>-0.56647619047618958</v>
       </c>
       <c r="K210">
         <f t="shared" si="22"/>
@@ -10051,7 +10051,7 @@
       </c>
       <c r="L210">
         <f t="shared" si="23"/>
-        <v>4.3</v>
+        <v>-0.61428571428571477</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="H211">
         <f t="shared" si="19"/>
-        <v>-0.20200000000000001</v>
+        <v>-0.20069523809523809</v>
       </c>
       <c r="I211">
         <f t="shared" si="20"/>
@@ -10087,11 +10087,11 @@
       </c>
       <c r="J211">
         <f t="shared" si="21"/>
-        <v>0.9</v>
+        <v>-0.56647619047618958</v>
       </c>
       <c r="K211">
         <f t="shared" si="22"/>
-        <v>5.5</v>
+        <v>0.58571428571428541</v>
       </c>
       <c r="L211">
         <f t="shared" si="23"/>
